--- a/器件清单.xlsx
+++ b/器件清单.xlsx
@@ -3,8 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20055" windowHeight="10755"/>
+    <workbookView windowWidth="20055" windowHeight="10755" tabRatio="584"/>
   </bookViews>
   <sheets>
     <sheet name="imx6_base_board" sheetId="1" r:id="rId1"/>
@@ -442,7 +443,7 @@
     <t>D1, D4, D6, D8, D10, D12, D19</t>
   </si>
   <si>
-    <t>1N5819</t>
+    <t>SOD123</t>
   </si>
   <si>
     <t>MM3Z6V2ST1G</t>
@@ -878,37 +879,84 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -923,22 +971,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,23 +1015,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -983,25 +1024,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1013,38 +1038,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1059,13 +1063,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,13 +1177,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,19 +1219,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,7 +1237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,116 +1247,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1307,9 +1311,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1340,19 +1342,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1388,6 +1377,21 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1436,50 +1440,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1489,6 +1454,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1510,9 +1514,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1531,196 +1537,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1730,7 +1687,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1739,110 +1696,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2161,18 +2088,18 @@
   <sheetPr/>
   <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="H133" sqref="H133"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="18.25" style="4"/>
+    <col min="3" max="3" width="7.11666666666667" style="4"/>
+    <col min="4" max="4" width="25.375"/>
+    <col min="5" max="5" width="14.375" style="4"/>
+    <col min="6" max="6" width="13.2583333333333"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
@@ -2216,7 +2143,7 @@
       <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="12"/>
@@ -2232,7 +2159,7 @@
       <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="12"/>
@@ -2248,7 +2175,7 @@
       <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="12"/>
@@ -2264,7 +2191,7 @@
       <c r="D6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="12"/>
@@ -2280,7 +2207,7 @@
       <c r="D7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="12"/>
@@ -2296,7 +2223,7 @@
       <c r="D8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="12"/>
@@ -2312,7 +2239,7 @@
       <c r="D9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="12"/>
@@ -2328,7 +2255,7 @@
       <c r="D10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="12"/>
@@ -2344,7 +2271,7 @@
       <c r="D11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="12"/>
@@ -2360,7 +2287,7 @@
       <c r="D12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="12"/>
@@ -2376,7 +2303,7 @@
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="12"/>
@@ -2392,7 +2319,7 @@
       <c r="D14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="12"/>
@@ -2408,7 +2335,7 @@
       <c r="D15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="12"/>
@@ -2424,7 +2351,7 @@
       <c r="D16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="12"/>
@@ -2440,7 +2367,7 @@
       <c r="D17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="12"/>
@@ -2456,7 +2383,7 @@
       <c r="D18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="12"/>
@@ -2472,7 +2399,7 @@
       <c r="D19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="12"/>
@@ -2488,7 +2415,7 @@
       <c r="D20" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="12"/>
@@ -2504,7 +2431,7 @@
       <c r="D21" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="12"/>
@@ -2520,28 +2447,28 @@
       <c r="D22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F22" s="12"/>
     </row>
     <row r="23" ht="14.25" spans="1:6">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:6">
       <c r="A25" s="6" t="s">
@@ -2564,7 +2491,7 @@
       </c>
     </row>
     <row r="26" ht="27" spans="1:6">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -2576,13 +2503,13 @@
       <c r="D26" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F26" s="12"/>
     </row>
     <row r="27" ht="27" spans="1:6">
-      <c r="A27" s="9"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="20" t="s">
         <v>53</v>
       </c>
@@ -2596,7 +2523,7 @@
       <c r="F27" s="12"/>
     </row>
     <row r="28" ht="40.5" spans="1:6">
-      <c r="A28" s="9"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="10" t="s">
         <v>55</v>
       </c>
@@ -2606,13 +2533,13 @@
       <c r="D28" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="9"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="10" t="s">
         <v>55</v>
       </c>
@@ -2622,13 +2549,13 @@
       <c r="D29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="9"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="10" t="s">
         <v>58</v>
       </c>
@@ -2638,13 +2565,13 @@
       <c r="D30" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="9"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="10" t="s">
         <v>60</v>
       </c>
@@ -2654,13 +2581,13 @@
       <c r="D31" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="9"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="10" t="s">
         <v>62</v>
       </c>
@@ -2676,7 +2603,7 @@
       <c r="F32" s="12"/>
     </row>
     <row r="33" ht="27" spans="1:6">
-      <c r="A33" s="9"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="20" t="s">
         <v>64</v>
       </c>
@@ -2690,7 +2617,7 @@
       <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="9"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="10" t="s">
         <v>66</v>
       </c>
@@ -2705,7 +2632,7 @@
       </c>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" ht="108" spans="1:6">
+    <row r="35" ht="108.75" spans="1:6">
       <c r="A35" s="21" t="s">
         <v>68</v>
       </c>
@@ -2718,12 +2645,12 @@
       <c r="D35" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" ht="14.25" spans="1:6">
       <c r="A36" s="21"/>
       <c r="B36" s="10" t="s">
         <v>69</v>
@@ -2734,12 +2661,12 @@
       <c r="D36" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" ht="14.25" spans="1:6">
       <c r="A37" s="21"/>
       <c r="B37" s="10" t="s">
         <v>72</v>
@@ -2750,12 +2677,12 @@
       <c r="D37" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" ht="14.25" spans="1:6">
       <c r="A38" s="21"/>
       <c r="B38" s="10" t="s">
         <v>74</v>
@@ -2766,12 +2693,12 @@
       <c r="D38" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" ht="14.25" spans="1:6">
       <c r="A39" s="21"/>
       <c r="B39" s="10">
         <v>20</v>
@@ -2782,12 +2709,12 @@
       <c r="D39" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="39" t="s">
+      <c r="E39" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" s="3" customFormat="1" ht="27" spans="1:6">
+    <row r="40" s="3" customFormat="1" ht="27.75" spans="1:6">
       <c r="A40" s="21"/>
       <c r="B40" s="20" t="s">
         <v>77</v>
@@ -2798,12 +2725,12 @@
       <c r="D40" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="20" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="22"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" ht="14.25" spans="1:6">
       <c r="A41" s="21"/>
       <c r="B41" s="10" t="s">
         <v>79</v>
@@ -2814,12 +2741,12 @@
       <c r="D41" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" ht="14.25" spans="1:6">
       <c r="A42" s="21"/>
       <c r="B42" s="10" t="s">
         <v>81</v>
@@ -2830,12 +2757,12 @@
       <c r="D42" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" ht="14.25" spans="1:6">
       <c r="A43" s="21"/>
       <c r="B43" s="10" t="s">
         <v>83</v>
@@ -2846,12 +2773,12 @@
       <c r="D43" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="39" t="s">
+      <c r="E43" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" ht="14.25" spans="1:6">
       <c r="A44" s="21"/>
       <c r="B44" s="10" t="s">
         <v>85</v>
@@ -2862,12 +2789,12 @@
       <c r="D44" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="39" t="s">
+      <c r="E44" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" ht="14.25" spans="1:6">
       <c r="A45" s="21"/>
       <c r="B45" s="10" t="s">
         <v>87</v>
@@ -2878,12 +2805,12 @@
       <c r="D45" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" ht="14.25" spans="1:6">
       <c r="A46" s="21"/>
       <c r="B46" s="10" t="s">
         <v>89</v>
@@ -2894,12 +2821,12 @@
       <c r="D46" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="39" t="s">
+      <c r="E46" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F46" s="12"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" ht="14.25" spans="1:6">
       <c r="A47" s="21"/>
       <c r="B47" s="10" t="s">
         <v>91</v>
@@ -2910,12 +2837,12 @@
       <c r="D47" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" ht="14.25" spans="1:6">
       <c r="A48" s="21"/>
       <c r="B48" s="10" t="s">
         <v>93</v>
@@ -2926,12 +2853,12 @@
       <c r="D48" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="39" t="s">
+      <c r="E48" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="12"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="21"/>
       <c r="B49" s="10" t="s">
         <v>95</v>
@@ -2942,12 +2869,12 @@
       <c r="D49" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" ht="14.25" spans="1:6">
       <c r="A50" s="21"/>
       <c r="B50" s="10" t="s">
         <v>97</v>
@@ -2958,12 +2885,12 @@
       <c r="D50" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="21"/>
       <c r="B51" s="10" t="s">
         <v>99</v>
@@ -2974,12 +2901,12 @@
       <c r="D51" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E51" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="12"/>
     </row>
-    <row r="52" ht="27" spans="1:6">
+    <row r="52" ht="27.75" spans="1:6">
       <c r="A52" s="21"/>
       <c r="B52" s="10" t="s">
         <v>101</v>
@@ -2990,12 +2917,12 @@
       <c r="D52" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="E52" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="21"/>
       <c r="B53" s="10" t="s">
         <v>103</v>
@@ -3006,12 +2933,12 @@
       <c r="D53" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="39" t="s">
+      <c r="E53" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" customFormat="1" spans="1:6">
+    <row r="54" ht="14.25" spans="1:6">
       <c r="A54" s="21"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -3019,7 +2946,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="12"/>
     </row>
-    <row r="55" customFormat="1" spans="1:6">
+    <row r="55" ht="14.25" spans="1:6">
       <c r="A55" s="21"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -3027,7 +2954,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="12"/>
     </row>
-    <row r="56" customFormat="1" spans="1:6">
+    <row r="56" ht="14.25" spans="1:6">
       <c r="A56" s="21"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -3035,7 +2962,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="12"/>
     </row>
-    <row r="57" customFormat="1" spans="1:6">
+    <row r="57" ht="14.25" spans="1:6">
       <c r="A57" s="21"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -3043,7 +2970,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="12"/>
     </row>
-    <row r="58" customFormat="1" spans="1:6">
+    <row r="58" ht="14.25" spans="1:6">
       <c r="A58" s="21"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -3051,7 +2978,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="12"/>
     </row>
-    <row r="59" customFormat="1" spans="1:6">
+    <row r="59" ht="14.25" spans="1:6">
       <c r="A59" s="21"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -3059,13 +2986,13 @@
       <c r="E59" s="10"/>
       <c r="F59" s="12"/>
     </row>
-    <row r="60" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A60" s="23"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="26"/>
+    <row r="60" ht="14.25" spans="1:6">
+      <c r="A60" s="21"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="25"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A61" s="1" t="s">
@@ -3073,7 +3000,6 @@
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="1"/>
       <c r="E61" s="5"/>
     </row>
     <row r="62" s="2" customFormat="1" spans="1:6">
@@ -3096,8 +3022,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" s="3" customFormat="1" ht="121.5" spans="1:6">
-      <c r="A63" s="27" t="s">
+    <row r="63" s="3" customFormat="1" ht="121.5" customHeight="1" spans="1:6">
+      <c r="A63" s="26" t="s">
         <v>68</v>
       </c>
       <c r="B63" s="20" t="s">
@@ -3109,13 +3035,13 @@
       <c r="D63" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E63" s="40" t="s">
+      <c r="E63" s="20" t="s">
         <v>10</v>
       </c>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="28"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="10" t="s">
         <v>107</v>
       </c>
@@ -3125,13 +3051,13 @@
       <c r="D64" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E64" s="39" t="s">
+      <c r="E64" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F64" s="12"/>
     </row>
     <row r="65" ht="27" spans="1:6">
-      <c r="A65" s="28"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="10" t="s">
         <v>109</v>
       </c>
@@ -3141,13 +3067,13 @@
       <c r="D65" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E65" s="39" t="s">
+      <c r="E65" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="12"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="28"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="10" t="s">
         <v>111</v>
       </c>
@@ -3157,13 +3083,13 @@
       <c r="D66" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E66" s="39" t="s">
+      <c r="E66" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="12"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="28"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="10" t="s">
         <v>113</v>
       </c>
@@ -3173,13 +3099,13 @@
       <c r="D67" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E67" s="39" t="s">
+      <c r="E67" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F67" s="12"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="28"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="10" t="s">
         <v>115</v>
       </c>
@@ -3189,13 +3115,13 @@
       <c r="D68" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E68" s="39" t="s">
+      <c r="E68" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="28"/>
+      <c r="A69" s="26"/>
       <c r="B69" s="10" t="s">
         <v>117</v>
       </c>
@@ -3205,13 +3131,13 @@
       <c r="D69" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E69" s="39" t="s">
+      <c r="E69" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F69" s="12"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="28"/>
+      <c r="A70" s="26"/>
       <c r="B70" s="10" t="s">
         <v>119</v>
       </c>
@@ -3221,13 +3147,13 @@
       <c r="D70" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E70" s="39" t="s">
+      <c r="E70" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="12"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="28"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="10" t="s">
         <v>121</v>
       </c>
@@ -3237,13 +3163,13 @@
       <c r="D71" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E71" s="39" t="s">
+      <c r="E71" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F71" s="12"/>
     </row>
     <row r="72" ht="27" spans="1:6">
-      <c r="A72" s="28"/>
+      <c r="A72" s="26"/>
       <c r="B72" s="10" t="s">
         <v>123</v>
       </c>
@@ -3253,13 +3179,13 @@
       <c r="D72" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E72" s="39" t="s">
+      <c r="E72" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F72" s="12"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="28"/>
+      <c r="A73" s="26"/>
       <c r="B73" s="10" t="s">
         <v>125</v>
       </c>
@@ -3269,13 +3195,13 @@
       <c r="D73" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E73" s="39" t="s">
+      <c r="E73" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F73" s="12"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="28"/>
+      <c r="A74" s="26"/>
       <c r="B74" s="10" t="s">
         <v>127</v>
       </c>
@@ -3285,13 +3211,13 @@
       <c r="D74" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E74" s="39" t="s">
+      <c r="E74" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F74" s="12"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="28"/>
+      <c r="A75" s="26"/>
       <c r="B75" s="10" t="s">
         <v>129</v>
       </c>
@@ -3301,13 +3227,13 @@
       <c r="D75" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E75" s="39" t="s">
+      <c r="E75" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F75" s="12"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="28"/>
+      <c r="A76" s="26"/>
       <c r="B76" s="10" t="s">
         <v>131</v>
       </c>
@@ -3317,13 +3243,13 @@
       <c r="D76" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E76" s="39" t="s">
+      <c r="E76" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F76" s="12"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="28"/>
+      <c r="A77" s="26"/>
       <c r="B77" s="10" t="s">
         <v>133</v>
       </c>
@@ -3333,13 +3259,13 @@
       <c r="D77" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E77" s="39" t="s">
+      <c r="E77" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F77" s="12"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="28"/>
+      <c r="A78" s="26"/>
       <c r="B78" s="10" t="s">
         <v>135</v>
       </c>
@@ -3349,13 +3275,13 @@
       <c r="D78" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E78" s="39" t="s">
+      <c r="E78" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F78" s="12"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="28"/>
+      <c r="A79" s="26"/>
       <c r="B79" s="10" t="s">
         <v>137</v>
       </c>
@@ -3365,13 +3291,13 @@
       <c r="D79" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E79" s="39" t="s">
+      <c r="E79" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F79" s="12"/>
     </row>
     <row r="80" ht="27" spans="1:6">
-      <c r="A80" s="29" t="s">
+      <c r="A80" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B80" s="10" t="s">
@@ -3389,7 +3315,7 @@
       <c r="F80" s="12"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="29"/>
+      <c r="A81" s="19"/>
       <c r="B81" s="10" t="s">
         <v>143</v>
       </c>
@@ -3405,7 +3331,7 @@
       <c r="F81" s="12"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="29"/>
+      <c r="A82" s="19"/>
       <c r="B82" s="10" t="s">
         <v>146</v>
       </c>
@@ -3421,7 +3347,7 @@
       <c r="F82" s="12"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="29"/>
+      <c r="A83" s="19"/>
       <c r="B83" s="10" t="s">
         <v>149</v>
       </c>
@@ -3437,7 +3363,7 @@
       <c r="F83" s="12"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="29"/>
+      <c r="A84" s="19"/>
       <c r="B84" s="10" t="s">
         <v>152</v>
       </c>
@@ -3453,7 +3379,7 @@
       <c r="F84" s="12"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="29"/>
+      <c r="A85" s="19"/>
       <c r="B85" s="10" t="s">
         <v>155</v>
       </c>
@@ -3469,7 +3395,7 @@
       <c r="F85" s="12"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="29"/>
+      <c r="A86" s="19"/>
       <c r="B86" s="10" t="s">
         <v>157</v>
       </c>
@@ -3485,7 +3411,7 @@
       <c r="F86" s="12"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="29"/>
+      <c r="A87" s="19"/>
       <c r="B87" s="10" t="s">
         <v>159</v>
       </c>
@@ -3501,7 +3427,7 @@
       <c r="F87" s="12"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="19" t="s">
         <v>162</v>
       </c>
       <c r="B88" s="10" t="s">
@@ -3519,7 +3445,7 @@
       <c r="F88" s="12"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="29"/>
+      <c r="A89" s="19"/>
       <c r="B89" s="10" t="s">
         <v>165</v>
       </c>
@@ -3535,7 +3461,7 @@
       <c r="F89" s="12"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="29"/>
+      <c r="A90" s="19"/>
       <c r="B90" s="10" t="s">
         <v>167</v>
       </c>
@@ -3551,7 +3477,7 @@
       <c r="F90" s="12"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="29"/>
+      <c r="A91" s="19"/>
       <c r="B91" s="10" t="s">
         <v>169</v>
       </c>
@@ -3567,7 +3493,7 @@
       <c r="F91" s="12"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="29"/>
+      <c r="A92" s="19"/>
       <c r="B92" s="10" t="s">
         <v>171</v>
       </c>
@@ -3582,8 +3508,8 @@
       </c>
       <c r="F92" s="12"/>
     </row>
-    <row r="93" ht="40.5" spans="1:6">
-      <c r="A93" s="29" t="s">
+    <row r="93" ht="41.25" spans="1:6">
+      <c r="A93" s="21" t="s">
         <v>173</v>
       </c>
       <c r="B93" s="20" t="s">
@@ -3596,10 +3522,12 @@
         <v>175</v>
       </c>
       <c r="E93" s="10"/>
-      <c r="F93" s="12"/>
-    </row>
-    <row r="94" ht="54" spans="1:6">
-      <c r="A94" s="29"/>
+      <c r="F93" s="12">
+        <v>74437336047</v>
+      </c>
+    </row>
+    <row r="94" ht="54.75" spans="1:6">
+      <c r="A94" s="21"/>
       <c r="B94" s="20" t="s">
         <v>176</v>
       </c>
@@ -3609,18 +3537,18 @@
       <c r="D94" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E94" s="39" t="s">
+      <c r="E94" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F94" s="12"/>
     </row>
     <row r="95" ht="14.25" spans="1:6">
-      <c r="A95" s="30"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="26"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="25"/>
     </row>
     <row r="96" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A96" s="1" t="s">
@@ -3628,7 +3556,6 @@
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="1"/>
       <c r="E96" s="5"/>
     </row>
     <row r="97" s="2" customFormat="1" spans="1:6">
@@ -3652,7 +3579,7 @@
       </c>
     </row>
     <row r="98" ht="40.5" spans="1:6">
-      <c r="A98" s="29" t="s">
+      <c r="A98" s="19" t="s">
         <v>173</v>
       </c>
       <c r="B98" s="20" t="s">
@@ -3665,10 +3592,12 @@
         <v>179</v>
       </c>
       <c r="E98" s="10"/>
-      <c r="F98" s="12"/>
+      <c r="F98" s="12">
+        <v>74438334047</v>
+      </c>
     </row>
     <row r="99" ht="40.5" spans="1:6">
-      <c r="A99" s="29"/>
+      <c r="A99" s="19"/>
       <c r="B99" s="20" t="s">
         <v>180</v>
       </c>
@@ -3679,10 +3608,12 @@
         <v>181</v>
       </c>
       <c r="E99" s="10"/>
-      <c r="F99" s="12"/>
+      <c r="F99" s="12">
+        <v>744053100</v>
+      </c>
     </row>
     <row r="100" ht="27" spans="1:6">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="19" t="s">
         <v>182</v>
       </c>
       <c r="B100" s="20" t="s">
@@ -3698,7 +3629,7 @@
       <c r="F100" s="12"/>
     </row>
     <row r="101" ht="27" spans="1:6">
-      <c r="A101" s="29"/>
+      <c r="A101" s="19"/>
       <c r="B101" s="20" t="s">
         <v>185</v>
       </c>
@@ -3712,7 +3643,7 @@
       <c r="F101" s="12"/>
     </row>
     <row r="102" ht="27" spans="1:6">
-      <c r="A102" s="29"/>
+      <c r="A102" s="19"/>
       <c r="B102" s="20" t="s">
         <v>187</v>
       </c>
@@ -3726,7 +3657,7 @@
       <c r="F102" s="12"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="21" t="s">
+      <c r="A103" s="19" t="s">
         <v>189</v>
       </c>
       <c r="B103" s="10" t="s">
@@ -3744,7 +3675,7 @@
       <c r="F103" s="12"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="21"/>
+      <c r="A104" s="19"/>
       <c r="B104" s="10" t="s">
         <v>193</v>
       </c>
@@ -3760,7 +3691,7 @@
       <c r="F104" s="12"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="21"/>
+      <c r="A105" s="19"/>
       <c r="B105" s="10" t="s">
         <v>196</v>
       </c>
@@ -3776,7 +3707,7 @@
       <c r="F105" s="12"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="21"/>
+      <c r="A106" s="19"/>
       <c r="B106" s="10" t="s">
         <v>198</v>
       </c>
@@ -3792,7 +3723,7 @@
       <c r="F106" s="12"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="21"/>
+      <c r="A107" s="19"/>
       <c r="B107" s="10" t="s">
         <v>201</v>
       </c>
@@ -3808,7 +3739,7 @@
       <c r="F107" s="12"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="21"/>
+      <c r="A108" s="19"/>
       <c r="B108" s="10" t="s">
         <v>204</v>
       </c>
@@ -3824,7 +3755,7 @@
       <c r="F108" s="12"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="21"/>
+      <c r="A109" s="19"/>
       <c r="B109" s="10" t="s">
         <v>206</v>
       </c>
@@ -3840,7 +3771,7 @@
       <c r="F109" s="12"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="21"/>
+      <c r="A110" s="19"/>
       <c r="B110" s="10" t="s">
         <v>209</v>
       </c>
@@ -3856,7 +3787,7 @@
       <c r="F110" s="12"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="21"/>
+      <c r="A111" s="19"/>
       <c r="B111" s="10" t="s">
         <v>212</v>
       </c>
@@ -3872,7 +3803,7 @@
       <c r="F111" s="12"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="21"/>
+      <c r="A112" s="19"/>
       <c r="B112" s="10" t="s">
         <v>215</v>
       </c>
@@ -3888,7 +3819,7 @@
       <c r="F112" s="12"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="21"/>
+      <c r="A113" s="19"/>
       <c r="B113" s="10" t="s">
         <v>218</v>
       </c>
@@ -3904,7 +3835,7 @@
       <c r="F113" s="12"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="21"/>
+      <c r="A114" s="19"/>
       <c r="B114" s="10" t="s">
         <v>221</v>
       </c>
@@ -3920,7 +3851,7 @@
       <c r="F114" s="12"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="21"/>
+      <c r="A115" s="19"/>
       <c r="B115" s="10" t="s">
         <v>223</v>
       </c>
@@ -3936,7 +3867,7 @@
       <c r="F115" s="12"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="21"/>
+      <c r="A116" s="19"/>
       <c r="B116" s="10" t="s">
         <v>226</v>
       </c>
@@ -3952,7 +3883,7 @@
       <c r="F116" s="12"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="21"/>
+      <c r="A117" s="19"/>
       <c r="B117" s="10" t="s">
         <v>229</v>
       </c>
@@ -3968,7 +3899,7 @@
       <c r="F117" s="12"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="21"/>
+      <c r="A118" s="19"/>
       <c r="B118" s="10" t="s">
         <v>232</v>
       </c>
@@ -3984,7 +3915,7 @@
       <c r="F118" s="12"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="21"/>
+      <c r="A119" s="19"/>
       <c r="B119" s="10" t="s">
         <v>229</v>
       </c>
@@ -4000,7 +3931,7 @@
       <c r="F119" s="12"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="21"/>
+      <c r="A120" s="19"/>
       <c r="B120" s="10" t="s">
         <v>236</v>
       </c>
@@ -4016,7 +3947,7 @@
       <c r="F120" s="12"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="21"/>
+      <c r="A121" s="19"/>
       <c r="B121" s="10" t="s">
         <v>239</v>
       </c>
@@ -4032,7 +3963,7 @@
       <c r="F121" s="12"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="21"/>
+      <c r="A122" s="19"/>
       <c r="B122" s="10" t="s">
         <v>242</v>
       </c>
@@ -4048,7 +3979,7 @@
       <c r="F122" s="12"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="21"/>
+      <c r="A123" s="19"/>
       <c r="B123" s="10" t="s">
         <v>244</v>
       </c>
@@ -4064,7 +3995,7 @@
       <c r="F123" s="12"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="21"/>
+      <c r="A124" s="19"/>
       <c r="B124" s="10" t="s">
         <v>246</v>
       </c>
@@ -4080,7 +4011,7 @@
       <c r="F124" s="12"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="33" t="s">
+      <c r="A125" s="19" t="s">
         <v>249</v>
       </c>
       <c r="B125" s="10" t="s">
@@ -4096,7 +4027,7 @@
       <c r="F125" s="12"/>
     </row>
     <row r="126" ht="27" spans="1:6">
-      <c r="A126" s="34"/>
+      <c r="A126" s="19"/>
       <c r="B126" s="20" t="s">
         <v>252</v>
       </c>
@@ -4110,7 +4041,7 @@
       <c r="F126" s="12"/>
     </row>
     <row r="127" ht="43" customHeight="1" spans="1:6">
-      <c r="A127" s="35"/>
+      <c r="A127" s="19"/>
       <c r="B127" s="20" t="s">
         <v>254</v>
       </c>
@@ -4119,8 +4050,8 @@
       <c r="E127" s="10"/>
       <c r="F127" s="12"/>
     </row>
-    <row r="128" ht="27" spans="1:6">
-      <c r="A128" s="33" t="s">
+    <row r="128" ht="27.75" spans="1:6">
+      <c r="A128" s="21" t="s">
         <v>255</v>
       </c>
       <c r="B128" s="20" t="s">
@@ -4137,8 +4068,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="129" ht="27" spans="1:6">
-      <c r="A129" s="34"/>
+    <row r="129" ht="27.75" spans="1:6">
+      <c r="A129" s="21"/>
       <c r="B129" s="20" t="s">
         <v>259</v>
       </c>
@@ -4153,8 +4084,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="130" ht="27" spans="1:6">
-      <c r="A130" s="34"/>
+    <row r="130" ht="27.75" spans="1:6">
+      <c r="A130" s="21"/>
       <c r="B130" s="20" t="s">
         <v>261</v>
       </c>
@@ -4169,8 +4100,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="34"/>
+    <row r="131" ht="14.25" spans="1:6">
+      <c r="A131" s="21"/>
       <c r="B131" s="10" t="s">
         <v>263</v>
       </c>
@@ -4185,8 +4116,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="34"/>
+    <row r="132" ht="14.25" spans="1:6">
+      <c r="A132" s="21"/>
       <c r="B132" s="10" t="s">
         <v>265</v>
       </c>
@@ -4200,18 +4131,18 @@
       <c r="F132" s="12"/>
     </row>
     <row r="133" ht="14.25" spans="1:6">
-      <c r="A133" s="36"/>
-      <c r="B133" s="24" t="s">
+      <c r="A133" s="21"/>
+      <c r="B133" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="C133" s="24">
-        <v>1</v>
-      </c>
-      <c r="D133" s="25" t="s">
+      <c r="C133" s="23">
+        <v>1</v>
+      </c>
+      <c r="D133" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="E133" s="24"/>
-      <c r="F133" s="26"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="25"/>
     </row>
     <row r="134" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A134" s="1" t="s">
@@ -4219,7 +4150,6 @@
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
-      <c r="D134" s="1"/>
       <c r="E134" s="5"/>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:6">
@@ -4242,8 +4172,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" ht="27" spans="1:6">
-      <c r="A136" s="29" t="s">
+    <row r="136" spans="1:6">
+      <c r="A136" s="19" t="s">
         <v>255</v>
       </c>
       <c r="B136" s="20" t="s">
@@ -4259,7 +4189,7 @@
       <c r="F136" s="12"/>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="29"/>
+      <c r="A137" s="19"/>
       <c r="B137" s="10" t="s">
         <v>271</v>
       </c>
@@ -4275,7 +4205,7 @@
       </c>
     </row>
     <row r="138" ht="27" spans="1:6">
-      <c r="A138" s="29"/>
+      <c r="A138" s="19"/>
       <c r="B138" s="20" t="s">
         <v>273</v>
       </c>
@@ -4290,8 +4220,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="139" ht="27" spans="1:6">
-      <c r="A139" s="29"/>
+    <row r="139" spans="1:6">
+      <c r="A139" s="19"/>
       <c r="B139" s="20" t="s">
         <v>275</v>
       </c>
@@ -4300,8 +4230,8 @@
       <c r="E139" s="10"/>
       <c r="F139" s="12"/>
     </row>
-    <row r="140" ht="27" spans="1:6">
-      <c r="A140" s="29" t="s">
+    <row r="140" spans="1:6">
+      <c r="A140" s="19" t="s">
         <v>276</v>
       </c>
       <c r="B140" s="20" t="s">
@@ -4317,7 +4247,7 @@
       <c r="F140" s="12"/>
     </row>
     <row r="141" ht="27" spans="1:6">
-      <c r="A141" s="29"/>
+      <c r="A141" s="19"/>
       <c r="B141" s="20" t="s">
         <v>279</v>
       </c>
@@ -4331,7 +4261,7 @@
       <c r="F141" s="12"/>
     </row>
     <row r="142" ht="27" spans="1:6">
-      <c r="A142" s="29"/>
+      <c r="A142" s="19"/>
       <c r="B142" s="20" t="s">
         <v>281</v>
       </c>
@@ -4345,7 +4275,7 @@
       <c r="F142" s="12"/>
     </row>
     <row r="143" ht="27" spans="1:6">
-      <c r="A143" s="29"/>
+      <c r="A143" s="19"/>
       <c r="B143" s="20" t="s">
         <v>283</v>
       </c>
@@ -4359,7 +4289,7 @@
       <c r="F143" s="12"/>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="37"/>
+      <c r="A144" s="29"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
       <c r="D144" s="11"/>
@@ -4367,7 +4297,7 @@
       <c r="F144" s="12"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="37"/>
+      <c r="A145" s="29"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
       <c r="D145" s="11"/>
@@ -4375,7 +4305,7 @@
       <c r="F145" s="12"/>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="37"/>
+      <c r="A146" s="29"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
       <c r="D146" s="11"/>
@@ -4383,7 +4313,7 @@
       <c r="F146" s="12"/>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="37"/>
+      <c r="A147" s="29"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
       <c r="D147" s="11"/>
@@ -4391,7 +4321,7 @@
       <c r="F147" s="12"/>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="37"/>
+      <c r="A148" s="29"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
       <c r="D148" s="11"/>
@@ -4399,7 +4329,7 @@
       <c r="F148" s="12"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="37"/>
+      <c r="A149" s="29"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
       <c r="D149" s="11"/>
@@ -4407,7 +4337,7 @@
       <c r="F149" s="12"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="37"/>
+      <c r="A150" s="29"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
       <c r="D150" s="11"/>
@@ -4415,7 +4345,7 @@
       <c r="F150" s="12"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="37"/>
+      <c r="A151" s="29"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
       <c r="D151" s="11"/>
@@ -4423,7 +4353,7 @@
       <c r="F151" s="12"/>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="37"/>
+      <c r="A152" s="29"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
       <c r="D152" s="11"/>
@@ -4431,7 +4361,7 @@
       <c r="F152" s="12"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="37"/>
+      <c r="A153" s="29"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
       <c r="D153" s="11"/>
@@ -4439,7 +4369,7 @@
       <c r="F153" s="12"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="37"/>
+      <c r="A154" s="29"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
       <c r="D154" s="11"/>
@@ -4447,7 +4377,7 @@
       <c r="F154" s="12"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="37"/>
+      <c r="A155" s="29"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
       <c r="D155" s="11"/>
@@ -4455,7 +4385,7 @@
       <c r="F155" s="12"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="37"/>
+      <c r="A156" s="29"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
       <c r="D156" s="11"/>
@@ -4463,7 +4393,7 @@
       <c r="F156" s="12"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="37"/>
+      <c r="A157" s="29"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
       <c r="D157" s="11"/>
@@ -4471,7 +4401,7 @@
       <c r="F157" s="12"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="37"/>
+      <c r="A158" s="29"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
       <c r="D158" s="11"/>
@@ -4479,7 +4409,7 @@
       <c r="F158" s="12"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="37"/>
+      <c r="A159" s="29"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
       <c r="D159" s="11"/>
@@ -4487,7 +4417,7 @@
       <c r="F159" s="12"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="37"/>
+      <c r="A160" s="29"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
       <c r="D160" s="11"/>
@@ -4495,7 +4425,7 @@
       <c r="F160" s="12"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="37"/>
+      <c r="A161" s="29"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
       <c r="D161" s="11"/>
@@ -4503,7 +4433,7 @@
       <c r="F161" s="12"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="37"/>
+      <c r="A162" s="29"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
       <c r="D162" s="11"/>
@@ -4511,7 +4441,7 @@
       <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="37"/>
+      <c r="A163" s="29"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
       <c r="D163" s="11"/>
@@ -4519,7 +4449,7 @@
       <c r="F163" s="12"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="37"/>
+      <c r="A164" s="29"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
       <c r="D164" s="11"/>
@@ -4527,7 +4457,7 @@
       <c r="F164" s="12"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="37"/>
+      <c r="A165" s="29"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
       <c r="D165" s="11"/>
@@ -4535,7 +4465,7 @@
       <c r="F165" s="12"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="37"/>
+      <c r="A166" s="29"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
       <c r="D166" s="11"/>
@@ -4543,7 +4473,7 @@
       <c r="F166" s="12"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="37"/>
+      <c r="A167" s="29"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
       <c r="D167" s="11"/>
@@ -4551,7 +4481,7 @@
       <c r="F167" s="12"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="37"/>
+      <c r="A168" s="29"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
       <c r="D168" s="11"/>
@@ -4559,7 +4489,7 @@
       <c r="F168" s="12"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="37"/>
+      <c r="A169" s="29"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
       <c r="D169" s="11"/>
@@ -4567,7 +4497,7 @@
       <c r="F169" s="12"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="37"/>
+      <c r="A170" s="29"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
       <c r="D170" s="11"/>
@@ -4575,7 +4505,7 @@
       <c r="F170" s="12"/>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="37"/>
+      <c r="A171" s="29"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
       <c r="D171" s="11"/>
@@ -4583,7 +4513,7 @@
       <c r="F171" s="12"/>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="37"/>
+      <c r="A172" s="29"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
       <c r="D172" s="11"/>
@@ -4591,7 +4521,7 @@
       <c r="F172" s="12"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="37"/>
+      <c r="A173" s="29"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
       <c r="D173" s="11"/>
@@ -4599,7 +4529,7 @@
       <c r="F173" s="12"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="37"/>
+      <c r="A174" s="29"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
       <c r="D174" s="11"/>
@@ -4607,7 +4537,7 @@
       <c r="F174" s="12"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="37"/>
+      <c r="A175" s="29"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
       <c r="D175" s="11"/>
@@ -4615,7 +4545,7 @@
       <c r="F175" s="12"/>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="37"/>
+      <c r="A176" s="29"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
       <c r="D176" s="11"/>
@@ -4623,12 +4553,12 @@
       <c r="F176" s="12"/>
     </row>
     <row r="177" ht="14.25" spans="1:6">
-      <c r="A177" s="38"/>
-      <c r="B177" s="24"/>
-      <c r="C177" s="24"/>
-      <c r="D177" s="25"/>
-      <c r="E177" s="24"/>
-      <c r="F177" s="26"/>
+      <c r="A177" s="30"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="23"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4647,8 +4577,8 @@
     <mergeCell ref="A136:A139"/>
     <mergeCell ref="A140:A143"/>
   </mergeCells>
-  <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
+  <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/器件清单.xlsx
+++ b/器件清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14340" windowHeight="13635"/>
+    <workbookView windowWidth="28695" windowHeight="13635"/>
   </bookViews>
   <sheets>
     <sheet name="imx6_base_board" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
     <t>C188, C192</t>
   </si>
   <si>
-    <t>100pF/250V</t>
+    <t>100pF/450V</t>
   </si>
   <si>
     <t>C2</t>
@@ -994,9 +994,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1039,55 +1039,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1101,45 +1056,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1162,7 +1078,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1177,7 +1177,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,7 +1201,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,25 +1261,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,7 +1279,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,7 +1291,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,7 +1303,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1267,37 +1315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,37 +1333,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1357,7 +1351,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,7 +1549,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1565,21 +1600,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1601,11 +1621,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1624,24 +1642,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1650,10 +1650,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1662,137 +1662,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1859,42 +1859,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1911,9 +1878,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2233,8 +2197,8 @@
   <sheetPr/>
   <dimension ref="A1:F183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G182" sqref="G182"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2285,7 +2249,7 @@
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -2303,7 +2267,7 @@
       <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -2321,7 +2285,7 @@
       <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -2339,7 +2303,7 @@
       <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -2357,7 +2321,7 @@
       <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -2375,7 +2339,7 @@
       <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="26" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -2393,7 +2357,7 @@
       <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -2411,7 +2375,7 @@
       <c r="D10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -2429,7 +2393,7 @@
       <c r="D11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -2447,7 +2411,7 @@
       <c r="D12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -2465,7 +2429,7 @@
       <c r="D13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -2483,7 +2447,7 @@
       <c r="D14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="26" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -2519,7 +2483,7 @@
       <c r="D16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -2537,7 +2501,7 @@
       <c r="D17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="26" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -2555,7 +2519,7 @@
       <c r="D18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="9" t="s">
@@ -2573,7 +2537,7 @@
       <c r="D19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="26" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -2591,7 +2555,7 @@
       <c r="D20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="26" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="9" t="s">
@@ -2609,7 +2573,7 @@
       <c r="D21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -2627,7 +2591,7 @@
       <c r="D22" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="26" t="s">
         <v>36</v>
       </c>
       <c r="F22" s="9" t="s">
@@ -2645,7 +2609,7 @@
       <c r="D23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="27" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="13" t="s">
@@ -2685,7 +2649,7 @@
       <c r="D25" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="26" t="s">
         <v>22</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -2785,7 +2749,7 @@
       <c r="D31" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="9"/>
@@ -2801,7 +2765,7 @@
       <c r="D32" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="26" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="9"/>
@@ -2817,7 +2781,7 @@
       <c r="D33" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E33" s="26" t="s">
         <v>22</v>
       </c>
       <c r="F33" s="9"/>
@@ -2833,7 +2797,7 @@
       <c r="D34" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="9"/>
@@ -2849,7 +2813,7 @@
       <c r="D35" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="37" t="s">
+      <c r="E35" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="9"/>
@@ -2865,7 +2829,7 @@
       <c r="D36" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="9"/>
@@ -2881,7 +2845,7 @@
       <c r="D37" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="37" t="s">
+      <c r="E37" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="9"/>
@@ -2913,7 +2877,7 @@
       <c r="D39" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="9"/>
@@ -2945,7 +2909,7 @@
       <c r="D41" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="37" t="s">
+      <c r="E41" s="26" t="s">
         <v>36</v>
       </c>
       <c r="F41" s="9"/>
@@ -2961,7 +2925,7 @@
       <c r="D42" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="9"/>
@@ -2977,7 +2941,7 @@
       <c r="D43" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="9"/>
@@ -2993,7 +2957,7 @@
       <c r="D44" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="37" t="s">
+      <c r="E44" s="26" t="s">
         <v>36</v>
       </c>
       <c r="F44" s="9"/>
@@ -3009,7 +2973,7 @@
       <c r="D45" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="9"/>
@@ -3025,7 +2989,7 @@
       <c r="D46" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="37" t="s">
+      <c r="E46" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="9"/>
@@ -3041,7 +3005,7 @@
       <c r="D47" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E47" s="37" t="s">
+      <c r="E47" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="9"/>
@@ -3057,7 +3021,7 @@
       <c r="D48" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="9"/>
@@ -3073,7 +3037,7 @@
       <c r="D49" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="9"/>
@@ -3089,7 +3053,7 @@
       <c r="D50" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="37" t="s">
+      <c r="E50" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="9"/>
@@ -3105,7 +3069,7 @@
       <c r="D51" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E51" s="37" t="s">
+      <c r="E51" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="9"/>
@@ -3121,7 +3085,7 @@
       <c r="D52" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E52" s="37" t="s">
+      <c r="E52" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F52" s="9"/>
@@ -3137,7 +3101,7 @@
       <c r="D53" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="37" t="s">
+      <c r="E53" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="9"/>
@@ -3153,7 +3117,7 @@
       <c r="D54" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="9"/>
@@ -3169,7 +3133,7 @@
       <c r="D55" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="9"/>
@@ -3185,7 +3149,7 @@
       <c r="D56" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="E56" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="9"/>
@@ -3201,7 +3165,7 @@
       <c r="D57" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E57" s="38" t="s">
+      <c r="E57" s="27" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="13"/>
@@ -3239,7 +3203,7 @@
       <c r="D59" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="E59" s="39" t="s">
+      <c r="E59" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F59" s="19"/>
@@ -3255,7 +3219,7 @@
       <c r="D60" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E60" s="37" t="s">
+      <c r="E60" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="9"/>
@@ -3287,7 +3251,7 @@
       <c r="D62" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E62" s="37" t="s">
+      <c r="E62" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F62" s="9"/>
@@ -3303,7 +3267,7 @@
       <c r="D63" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="37" t="s">
+      <c r="E63" s="26" t="s">
         <v>22</v>
       </c>
       <c r="F63" s="9"/>
@@ -3319,7 +3283,7 @@
       <c r="D64" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E64" s="37" t="s">
+      <c r="E64" s="26" t="s">
         <v>132</v>
       </c>
       <c r="F64" s="9"/>
@@ -3335,7 +3299,7 @@
       <c r="D65" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E65" s="37" t="s">
+      <c r="E65" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="9"/>
@@ -3351,7 +3315,7 @@
       <c r="D66" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E66" s="37" t="s">
+      <c r="E66" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="9"/>
@@ -3367,7 +3331,7 @@
       <c r="D67" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E67" s="37" t="s">
+      <c r="E67" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F67" s="9"/>
@@ -3383,7 +3347,7 @@
       <c r="D68" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E68" s="37" t="s">
+      <c r="E68" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F68" s="9"/>
@@ -3399,7 +3363,7 @@
       <c r="D69" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E69" s="37" t="s">
+      <c r="E69" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F69" s="9"/>
@@ -3415,7 +3379,7 @@
       <c r="D70" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E70" s="37" t="s">
+      <c r="E70" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="9"/>
@@ -3431,7 +3395,7 @@
       <c r="D71" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E71" s="37" t="s">
+      <c r="E71" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F71" s="9"/>
@@ -3447,7 +3411,7 @@
       <c r="D72" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E72" s="37" t="s">
+      <c r="E72" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F72" s="9"/>
@@ -3657,7 +3621,7 @@
       <c r="D85" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E85" s="37" t="s">
+      <c r="E85" s="26" t="s">
         <v>36</v>
       </c>
       <c r="F85" s="9"/>
@@ -3841,642 +3805,642 @@
       </c>
     </row>
     <row r="97" s="1" customFormat="1" spans="1:6">
-      <c r="A97" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B97" s="23" t="s">
+      <c r="A97" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="C97" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D97" s="23" t="s">
+      <c r="D97" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E97" s="23" t="s">
+      <c r="E97" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F97" s="24" t="s">
+      <c r="F97" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="98" ht="27" spans="1:6">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B98" s="26" t="s">
+      <c r="B98" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C98" s="27">
+      <c r="C98" s="8">
         <v>2</v>
       </c>
-      <c r="D98" s="27" t="s">
+      <c r="D98" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E98" s="27"/>
-      <c r="F98" s="28" t="s">
+      <c r="E98" s="8"/>
+      <c r="F98" s="22" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="99" ht="27" spans="1:6">
-      <c r="A99" s="25"/>
-      <c r="B99" s="26" t="s">
+      <c r="A99" s="7"/>
+      <c r="B99" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C99" s="27">
-        <v>1</v>
-      </c>
-      <c r="D99" s="27" t="s">
+      <c r="C99" s="8">
+        <v>1</v>
+      </c>
+      <c r="D99" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E99" s="27"/>
-      <c r="F99" s="28" t="s">
+      <c r="E99" s="8"/>
+      <c r="F99" s="22" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="100" ht="67.5" spans="1:6">
-      <c r="A100" s="25"/>
-      <c r="B100" s="26" t="s">
+      <c r="A100" s="7"/>
+      <c r="B100" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C100" s="27">
+      <c r="C100" s="8">
         <v>22</v>
       </c>
-      <c r="D100" s="26" t="s">
+      <c r="D100" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E100" s="40" t="s">
+      <c r="E100" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F100" s="29"/>
+      <c r="F100" s="9"/>
     </row>
     <row r="101" ht="27" spans="1:6">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B101" s="26" t="s">
+      <c r="B101" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C101" s="27">
-        <v>1</v>
-      </c>
-      <c r="D101" s="27" t="s">
+      <c r="C101" s="8">
+        <v>1</v>
+      </c>
+      <c r="D101" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E101" s="27"/>
-      <c r="F101" s="29"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="9"/>
     </row>
     <row r="102" ht="27" spans="1:6">
-      <c r="A102" s="25"/>
-      <c r="B102" s="26" t="s">
+      <c r="A102" s="7"/>
+      <c r="B102" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C102" s="27">
+      <c r="C102" s="8">
         <v>2</v>
       </c>
-      <c r="D102" s="27" t="s">
+      <c r="D102" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E102" s="27"/>
-      <c r="F102" s="29"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="9"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B103" s="27" t="s">
+      <c r="B103" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C103" s="27">
-        <v>1</v>
-      </c>
-      <c r="D103" s="27" t="s">
+      <c r="C103" s="8">
+        <v>1</v>
+      </c>
+      <c r="D103" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E103" s="27" t="s">
+      <c r="E103" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F103" s="29"/>
+      <c r="F103" s="9"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="25"/>
-      <c r="B104" s="27" t="s">
+      <c r="A104" s="7"/>
+      <c r="B104" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C104" s="27">
-        <v>1</v>
-      </c>
-      <c r="D104" s="27" t="s">
+      <c r="C104" s="8">
+        <v>1</v>
+      </c>
+      <c r="D104" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E104" s="27" t="s">
+      <c r="E104" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F104" s="29"/>
+      <c r="F104" s="9"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="25"/>
-      <c r="B105" s="27" t="s">
+      <c r="A105" s="7"/>
+      <c r="B105" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C105" s="27">
-        <v>1</v>
-      </c>
-      <c r="D105" s="27" t="s">
+      <c r="C105" s="8">
+        <v>1</v>
+      </c>
+      <c r="D105" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E105" s="27" t="s">
+      <c r="E105" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F105" s="29"/>
+      <c r="F105" s="9"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="25"/>
-      <c r="B106" s="27" t="s">
+      <c r="A106" s="7"/>
+      <c r="B106" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C106" s="27">
-        <v>1</v>
-      </c>
-      <c r="D106" s="27" t="s">
+      <c r="C106" s="8">
+        <v>1</v>
+      </c>
+      <c r="D106" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E106" s="27" t="s">
+      <c r="E106" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="F106" s="29"/>
+      <c r="F106" s="9"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="25"/>
-      <c r="B107" s="27" t="s">
+      <c r="A107" s="7"/>
+      <c r="B107" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C107" s="27">
+      <c r="C107" s="8">
         <v>4</v>
       </c>
-      <c r="D107" s="27" t="s">
+      <c r="D107" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E107" s="27" t="s">
+      <c r="E107" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="F107" s="29"/>
+      <c r="F107" s="9"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="25"/>
-      <c r="B108" s="27" t="s">
+      <c r="A108" s="7"/>
+      <c r="B108" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C108" s="27">
+      <c r="C108" s="8">
         <v>4</v>
       </c>
-      <c r="D108" s="27" t="s">
+      <c r="D108" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E108" s="27" t="s">
+      <c r="E108" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F108" s="29"/>
+      <c r="F108" s="9"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="25"/>
-      <c r="B109" s="27" t="s">
+      <c r="A109" s="7"/>
+      <c r="B109" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C109" s="27">
-        <v>1</v>
-      </c>
-      <c r="D109" s="27" t="s">
+      <c r="C109" s="8">
+        <v>1</v>
+      </c>
+      <c r="D109" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E109" s="27" t="s">
+      <c r="E109" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F109" s="29"/>
+      <c r="F109" s="9"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="25"/>
-      <c r="B110" s="27" t="s">
+      <c r="A110" s="7"/>
+      <c r="B110" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C110" s="27">
-        <v>1</v>
-      </c>
-      <c r="D110" s="27" t="s">
+      <c r="C110" s="8">
+        <v>1</v>
+      </c>
+      <c r="D110" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E110" s="27" t="s">
+      <c r="E110" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F110" s="29"/>
+      <c r="F110" s="9"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="25"/>
-      <c r="B111" s="27" t="s">
+      <c r="A111" s="7"/>
+      <c r="B111" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C111" s="27">
-        <v>1</v>
-      </c>
-      <c r="D111" s="27" t="s">
+      <c r="C111" s="8">
+        <v>1</v>
+      </c>
+      <c r="D111" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="E111" s="27" t="s">
+      <c r="E111" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="F111" s="29"/>
+      <c r="F111" s="9"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="25"/>
-      <c r="B112" s="27" t="s">
+      <c r="A112" s="7"/>
+      <c r="B112" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C112" s="27">
-        <v>1</v>
-      </c>
-      <c r="D112" s="27" t="s">
+      <c r="C112" s="8">
+        <v>1</v>
+      </c>
+      <c r="D112" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="E112" s="27" t="s">
+      <c r="E112" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="F112" s="29"/>
+      <c r="F112" s="9"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="25"/>
-      <c r="B113" s="27" t="s">
+      <c r="A113" s="7"/>
+      <c r="B113" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C113" s="27">
-        <v>1</v>
-      </c>
-      <c r="D113" s="27" t="s">
+      <c r="C113" s="8">
+        <v>1</v>
+      </c>
+      <c r="D113" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E113" s="27" t="s">
+      <c r="E113" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="F113" s="29"/>
+      <c r="F113" s="9"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="25"/>
-      <c r="B114" s="27" t="s">
+      <c r="A114" s="7"/>
+      <c r="B114" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C114" s="27">
-        <v>1</v>
-      </c>
-      <c r="D114" s="27" t="s">
+      <c r="C114" s="8">
+        <v>1</v>
+      </c>
+      <c r="D114" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="E114" s="27" t="s">
+      <c r="E114" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="F114" s="29"/>
+      <c r="F114" s="9"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="25"/>
-      <c r="B115" s="27" t="s">
+      <c r="A115" s="7"/>
+      <c r="B115" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C115" s="27">
+      <c r="C115" s="8">
         <v>3</v>
       </c>
-      <c r="D115" s="27" t="s">
+      <c r="D115" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="E115" s="27" t="s">
+      <c r="E115" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F115" s="29"/>
+      <c r="F115" s="9"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="25"/>
-      <c r="B116" s="27" t="s">
+      <c r="A116" s="7"/>
+      <c r="B116" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C116" s="27">
-        <v>1</v>
-      </c>
-      <c r="D116" s="27" t="s">
+      <c r="C116" s="8">
+        <v>1</v>
+      </c>
+      <c r="D116" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E116" s="27" t="s">
+      <c r="E116" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F116" s="29"/>
+      <c r="F116" s="9"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="25"/>
-      <c r="B117" s="27" t="s">
+      <c r="A117" s="7"/>
+      <c r="B117" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C117" s="27">
+      <c r="C117" s="8">
         <v>2</v>
       </c>
-      <c r="D117" s="27" t="s">
+      <c r="D117" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="E117" s="27" t="s">
+      <c r="E117" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="F117" s="29"/>
+      <c r="F117" s="9"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="25"/>
-      <c r="B118" s="27" t="s">
+      <c r="A118" s="7"/>
+      <c r="B118" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C118" s="27">
-        <v>1</v>
-      </c>
-      <c r="D118" s="27" t="s">
+      <c r="C118" s="8">
+        <v>1</v>
+      </c>
+      <c r="D118" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E118" s="27" t="s">
+      <c r="E118" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="F118" s="29"/>
+      <c r="F118" s="9"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="25"/>
-      <c r="B119" s="27" t="s">
+      <c r="A119" s="7"/>
+      <c r="B119" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C119" s="27">
+      <c r="C119" s="8">
         <v>2</v>
       </c>
-      <c r="D119" s="27" t="s">
+      <c r="D119" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E119" s="27" t="s">
+      <c r="E119" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F119" s="29"/>
+      <c r="F119" s="9"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="25"/>
-      <c r="B120" s="27" t="s">
+      <c r="A120" s="7"/>
+      <c r="B120" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C120" s="27">
-        <v>1</v>
-      </c>
-      <c r="D120" s="27" t="s">
+      <c r="C120" s="8">
+        <v>1</v>
+      </c>
+      <c r="D120" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="E120" s="27" t="s">
+      <c r="E120" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="F120" s="29"/>
+      <c r="F120" s="9"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="25"/>
-      <c r="B121" s="27" t="s">
+      <c r="A121" s="7"/>
+      <c r="B121" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C121" s="27">
-        <v>1</v>
-      </c>
-      <c r="D121" s="27" t="s">
+      <c r="C121" s="8">
+        <v>1</v>
+      </c>
+      <c r="D121" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E121" s="27" t="s">
+      <c r="E121" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="F121" s="29"/>
+      <c r="F121" s="9"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="25"/>
-      <c r="B122" s="27" t="s">
+      <c r="A122" s="7"/>
+      <c r="B122" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C122" s="27">
+      <c r="C122" s="8">
         <v>2</v>
       </c>
-      <c r="D122" s="27" t="s">
+      <c r="D122" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="E122" s="27" t="s">
+      <c r="E122" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F122" s="29"/>
+      <c r="F122" s="9"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="25"/>
-      <c r="B123" s="27" t="s">
+      <c r="A123" s="7"/>
+      <c r="B123" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C123" s="27">
-        <v>1</v>
-      </c>
-      <c r="D123" s="27" t="s">
+      <c r="C123" s="8">
+        <v>1</v>
+      </c>
+      <c r="D123" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E123" s="27" t="s">
+      <c r="E123" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F123" s="29"/>
+      <c r="F123" s="9"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="25"/>
-      <c r="B124" s="27" t="s">
+      <c r="A124" s="7"/>
+      <c r="B124" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C124" s="27">
-        <v>1</v>
-      </c>
-      <c r="D124" s="27" t="s">
+      <c r="C124" s="8">
+        <v>1</v>
+      </c>
+      <c r="D124" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="E124" s="27" t="s">
+      <c r="E124" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="F124" s="29"/>
+      <c r="F124" s="9"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="25" t="s">
+      <c r="A125" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B125" s="27" t="s">
+      <c r="B125" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C125" s="27">
-        <v>1</v>
-      </c>
-      <c r="D125" s="27" t="s">
+      <c r="C125" s="8">
+        <v>1</v>
+      </c>
+      <c r="D125" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="E125" s="27"/>
-      <c r="F125" s="29"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="9"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="25" t="s">
+      <c r="A126" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B126" s="27" t="s">
+      <c r="B126" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C126" s="27">
-        <v>1</v>
-      </c>
-      <c r="D126" s="27" t="s">
+      <c r="C126" s="8">
+        <v>1</v>
+      </c>
+      <c r="D126" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="E126" s="27"/>
-      <c r="F126" s="29" t="s">
+      <c r="E126" s="8"/>
+      <c r="F126" s="9" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="25"/>
-      <c r="B127" s="27" t="s">
+      <c r="A127" s="7"/>
+      <c r="B127" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C127" s="27">
-        <v>1</v>
-      </c>
-      <c r="D127" s="27" t="s">
+      <c r="C127" s="8">
+        <v>1</v>
+      </c>
+      <c r="D127" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="E127" s="27"/>
-      <c r="F127" s="29" t="s">
+      <c r="E127" s="8"/>
+      <c r="F127" s="9" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="25"/>
-      <c r="B128" s="27" t="s">
+      <c r="A128" s="7"/>
+      <c r="B128" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C128" s="27">
-        <v>1</v>
-      </c>
-      <c r="D128" s="27" t="s">
+      <c r="C128" s="8">
+        <v>1</v>
+      </c>
+      <c r="D128" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="E128" s="27"/>
-      <c r="F128" s="29" t="s">
+      <c r="E128" s="8"/>
+      <c r="F128" s="9" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="129" ht="27" spans="1:6">
-      <c r="A129" s="25"/>
-      <c r="B129" s="26" t="s">
+      <c r="A129" s="7"/>
+      <c r="B129" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="C129" s="27">
-        <v>1</v>
-      </c>
-      <c r="D129" s="27" t="s">
+      <c r="C129" s="8">
+        <v>1</v>
+      </c>
+      <c r="D129" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="E129" s="27"/>
-      <c r="F129" s="29"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="9"/>
     </row>
     <row r="130" ht="27" spans="1:6">
-      <c r="A130" s="25"/>
-      <c r="B130" s="26" t="s">
+      <c r="A130" s="7"/>
+      <c r="B130" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C130" s="27">
-        <v>1</v>
-      </c>
-      <c r="D130" s="27" t="s">
+      <c r="C130" s="8">
+        <v>1</v>
+      </c>
+      <c r="D130" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="E130" s="27"/>
-      <c r="F130" s="29"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="9"/>
     </row>
     <row r="131" ht="27" spans="1:6">
-      <c r="A131" s="25"/>
-      <c r="B131" s="26" t="s">
+      <c r="A131" s="7"/>
+      <c r="B131" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C131" s="27">
-        <v>1</v>
-      </c>
-      <c r="D131" s="27" t="s">
+      <c r="C131" s="8">
+        <v>1</v>
+      </c>
+      <c r="D131" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="E131" s="27"/>
-      <c r="F131" s="29"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="9"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="25"/>
-      <c r="B132" s="27" t="s">
+      <c r="A132" s="7"/>
+      <c r="B132" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C132" s="27">
-        <v>1</v>
-      </c>
-      <c r="D132" s="27" t="s">
+      <c r="C132" s="8">
+        <v>1</v>
+      </c>
+      <c r="D132" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="E132" s="27"/>
-      <c r="F132" s="29" t="s">
+      <c r="E132" s="8"/>
+      <c r="F132" s="9" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="25"/>
-      <c r="B133" s="27" t="s">
+      <c r="A133" s="7"/>
+      <c r="B133" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C133" s="27">
-        <v>1</v>
-      </c>
-      <c r="D133" s="27" t="s">
+      <c r="C133" s="8">
+        <v>1</v>
+      </c>
+      <c r="D133" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="E133" s="27"/>
-      <c r="F133" s="29"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="9"/>
     </row>
     <row r="134" ht="27" spans="1:6">
-      <c r="A134" s="25"/>
-      <c r="B134" s="30" t="s">
+      <c r="A134" s="7"/>
+      <c r="B134" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C134" s="27">
-        <v>1</v>
-      </c>
-      <c r="D134" s="27" t="s">
+      <c r="C134" s="8">
+        <v>1</v>
+      </c>
+      <c r="D134" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="E134" s="27"/>
-      <c r="F134" s="29"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="9"/>
     </row>
     <row r="135" ht="14.25" spans="1:6">
-      <c r="A135" s="31"/>
-      <c r="B135" s="32" t="s">
+      <c r="A135" s="11"/>
+      <c r="B135" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="C135" s="32">
-        <v>1</v>
-      </c>
-      <c r="D135" s="32" t="s">
+      <c r="C135" s="12">
+        <v>1</v>
+      </c>
+      <c r="D135" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="E135" s="32"/>
-      <c r="F135" s="33"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="13"/>
     </row>
     <row r="136" s="1" customFormat="1" spans="1:6">
-      <c r="A136" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B136" s="23" t="s">
+      <c r="A136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C136" s="23" t="s">
+      <c r="C136" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D136" s="23" t="s">
+      <c r="D136" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E136" s="23" t="s">
+      <c r="E136" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F136" s="24" t="s">
+      <c r="F136" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4572,10 +4536,10 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="7"/>
-      <c r="B143" s="34" t="s">
+      <c r="B143" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="C143" s="34">
+      <c r="C143" s="23">
         <v>4</v>
       </c>
       <c r="D143" s="8"/>
@@ -4584,10 +4548,10 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="7"/>
-      <c r="B144" s="34" t="s">
+      <c r="B144" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="C144" s="34">
+      <c r="C144" s="23">
         <v>2</v>
       </c>
       <c r="D144" s="8"/>
@@ -4595,7 +4559,7 @@
       <c r="F144" s="9"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="35"/>
+      <c r="A145" s="24"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
@@ -4603,7 +4567,7 @@
       <c r="F145" s="9"/>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="35"/>
+      <c r="A146" s="24"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
@@ -4611,7 +4575,7 @@
       <c r="F146" s="9"/>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="35"/>
+      <c r="A147" s="24"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
@@ -4619,7 +4583,7 @@
       <c r="F147" s="9"/>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="35"/>
+      <c r="A148" s="24"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="10"/>
@@ -4627,7 +4591,7 @@
       <c r="F148" s="9"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="35"/>
+      <c r="A149" s="24"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
@@ -4635,7 +4599,7 @@
       <c r="F149" s="9"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="35"/>
+      <c r="A150" s="24"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
@@ -4643,7 +4607,7 @@
       <c r="F150" s="9"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="35"/>
+      <c r="A151" s="24"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
@@ -4651,7 +4615,7 @@
       <c r="F151" s="9"/>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="35"/>
+      <c r="A152" s="24"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
@@ -4659,7 +4623,7 @@
       <c r="F152" s="9"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="35"/>
+      <c r="A153" s="24"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="10"/>
@@ -4667,7 +4631,7 @@
       <c r="F153" s="9"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="35"/>
+      <c r="A154" s="24"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
@@ -4675,7 +4639,7 @@
       <c r="F154" s="9"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="35"/>
+      <c r="A155" s="24"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -4683,7 +4647,7 @@
       <c r="F155" s="9"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="35"/>
+      <c r="A156" s="24"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
@@ -4691,7 +4655,7 @@
       <c r="F156" s="9"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="35"/>
+      <c r="A157" s="24"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
@@ -4699,7 +4663,7 @@
       <c r="F157" s="9"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="35"/>
+      <c r="A158" s="24"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
@@ -4707,7 +4671,7 @@
       <c r="F158" s="9"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="35"/>
+      <c r="A159" s="24"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
@@ -4715,7 +4679,7 @@
       <c r="F159" s="9"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="35"/>
+      <c r="A160" s="24"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
@@ -4723,7 +4687,7 @@
       <c r="F160" s="9"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="35"/>
+      <c r="A161" s="24"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
@@ -4731,7 +4695,7 @@
       <c r="F161" s="9"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="35"/>
+      <c r="A162" s="24"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
@@ -4739,7 +4703,7 @@
       <c r="F162" s="9"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="35"/>
+      <c r="A163" s="24"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
@@ -4747,7 +4711,7 @@
       <c r="F163" s="9"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="35"/>
+      <c r="A164" s="24"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
@@ -4755,7 +4719,7 @@
       <c r="F164" s="9"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="35"/>
+      <c r="A165" s="24"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
@@ -4763,7 +4727,7 @@
       <c r="F165" s="9"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="35"/>
+      <c r="A166" s="24"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
@@ -4771,7 +4735,7 @@
       <c r="F166" s="9"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="35"/>
+      <c r="A167" s="24"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
@@ -4779,7 +4743,7 @@
       <c r="F167" s="9"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="35"/>
+      <c r="A168" s="24"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
@@ -4787,7 +4751,7 @@
       <c r="F168" s="9"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="35"/>
+      <c r="A169" s="24"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
@@ -4795,7 +4759,7 @@
       <c r="F169" s="9"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="35"/>
+      <c r="A170" s="24"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
@@ -4803,7 +4767,7 @@
       <c r="F170" s="9"/>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="35"/>
+      <c r="A171" s="24"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
@@ -4811,7 +4775,7 @@
       <c r="F171" s="9"/>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="35"/>
+      <c r="A172" s="24"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
@@ -4819,7 +4783,7 @@
       <c r="F172" s="9"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="35"/>
+      <c r="A173" s="24"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
@@ -4827,7 +4791,7 @@
       <c r="F173" s="9"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="35"/>
+      <c r="A174" s="24"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
@@ -4835,7 +4799,7 @@
       <c r="F174" s="9"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="35"/>
+      <c r="A175" s="24"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
@@ -4843,7 +4807,7 @@
       <c r="F175" s="9"/>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="35"/>
+      <c r="A176" s="24"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
@@ -4851,7 +4815,7 @@
       <c r="F176" s="9"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="35"/>
+      <c r="A177" s="24"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
@@ -4859,7 +4823,7 @@
       <c r="F177" s="9"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="35"/>
+      <c r="A178" s="24"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
@@ -4867,7 +4831,7 @@
       <c r="F178" s="9"/>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="35"/>
+      <c r="A179" s="24"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
@@ -4875,7 +4839,7 @@
       <c r="F179" s="9"/>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="35"/>
+      <c r="A180" s="24"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
@@ -4883,7 +4847,7 @@
       <c r="F180" s="9"/>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="35"/>
+      <c r="A181" s="24"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
@@ -4891,7 +4855,7 @@
       <c r="F181" s="9"/>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="35"/>
+      <c r="A182" s="24"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
@@ -4899,7 +4863,7 @@
       <c r="F182" s="9"/>
     </row>
     <row r="183" ht="14.25" spans="1:6">
-      <c r="A183" s="36"/>
+      <c r="A183" s="25"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
       <c r="D183" s="12"/>

--- a/器件清单.xlsx
+++ b/器件清单.xlsx
@@ -208,7 +208,7 @@
     <t>C12, C17, C27</t>
   </si>
   <si>
-    <t>220uF/25V贴片钽电容</t>
+    <t>100uF/25V贴片钽电容</t>
   </si>
   <si>
     <t>C25, C29</t>
@@ -1012,9 +1012,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1043,7 +1043,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1057,14 +1064,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1079,63 +1156,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1156,31 +1179,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1195,7 +1195,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,61 +1261,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,7 +1297,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,49 +1327,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,37 +1369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,17 +1780,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1805,27 +1810,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1845,26 +1839,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1876,10 +1876,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1891,134 +1891,134 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2145,23 +2145,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2513,12 +2498,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:XFD180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18952,7 +18937,7 @@
       <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="49" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="12" t="s">
@@ -18970,7 +18955,7 @@
       <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="16" t="s">
@@ -18988,7 +18973,7 @@
       <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -19006,7 +18991,7 @@
       <c r="D6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="16" t="s">
@@ -19024,7 +19009,7 @@
       <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="16" t="s">
@@ -19042,7 +19027,7 @@
       <c r="D8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="50" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="16" t="s">
@@ -19060,7 +19045,7 @@
       <c r="D9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="16" t="s">
@@ -19078,7 +19063,7 @@
       <c r="D10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="18" t="s">
@@ -19096,7 +19081,7 @@
       <c r="D11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="18" t="s">
@@ -19114,7 +19099,7 @@
       <c r="D12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="18" t="s">
@@ -19132,7 +19117,7 @@
       <c r="D13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="18" t="s">
@@ -19150,7 +19135,7 @@
       <c r="D14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="50" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="18" t="s">
@@ -19186,7 +19171,7 @@
       <c r="D16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="18" t="s">
@@ -19204,7 +19189,7 @@
       <c r="D17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="50" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="18" t="s">
@@ -19222,7 +19207,7 @@
       <c r="D18" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="18" t="s">
@@ -19240,7 +19225,7 @@
       <c r="D19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="50" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="18" t="s">
@@ -19258,7 +19243,7 @@
       <c r="D20" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="50" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="18" t="s">
@@ -19276,7 +19261,7 @@
       <c r="D21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="18" t="s">
@@ -19332,7 +19317,7 @@
       <c r="D25" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="50" t="s">
         <v>36</v>
       </c>
       <c r="F25" s="18" t="s">
@@ -19350,7 +19335,7 @@
       <c r="D26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="50" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="18" t="s">
@@ -19368,7 +19353,7 @@
       <c r="D27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="50" t="s">
         <v>22</v>
       </c>
       <c r="F27" s="18" t="s">
@@ -19484,7 +19469,7 @@
       <c r="D34" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="18"/>
@@ -19500,7 +19485,7 @@
       <c r="D35" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="50" t="s">
         <v>22</v>
       </c>
       <c r="F35" s="18"/>
@@ -19516,7 +19501,7 @@
       <c r="D36" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="55" t="s">
+      <c r="E36" s="50" t="s">
         <v>22</v>
       </c>
       <c r="F36" s="18"/>
@@ -19532,7 +19517,7 @@
       <c r="D37" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="18"/>
@@ -19548,7 +19533,7 @@
       <c r="D38" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="55" t="s">
+      <c r="E38" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="18"/>
@@ -19564,7 +19549,7 @@
       <c r="D39" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="18"/>
@@ -19580,7 +19565,7 @@
       <c r="D40" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="55" t="s">
+      <c r="E40" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="18"/>
@@ -19612,7 +19597,7 @@
       <c r="D42" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="55" t="s">
+      <c r="E42" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="18"/>
@@ -19628,7 +19613,7 @@
       <c r="D43" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="50" t="s">
         <v>36</v>
       </c>
       <c r="F43" s="18"/>
@@ -19660,7 +19645,7 @@
       <c r="D45" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="55" t="s">
+      <c r="E45" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="27"/>
@@ -19676,7 +19661,7 @@
       <c r="D46" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="55" t="s">
+      <c r="E46" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="18"/>
@@ -19692,7 +19677,7 @@
       <c r="D47" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="55" t="s">
+      <c r="E47" s="50" t="s">
         <v>36</v>
       </c>
       <c r="F47" s="18"/>
@@ -19708,7 +19693,7 @@
       <c r="D48" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="55" t="s">
+      <c r="E48" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="18"/>
@@ -19724,7 +19709,7 @@
       <c r="D49" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="55" t="s">
+      <c r="E49" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="18"/>
@@ -19740,7 +19725,7 @@
       <c r="D50" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="55" t="s">
+      <c r="E50" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="18"/>
@@ -19756,7 +19741,7 @@
       <c r="D51" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="55" t="s">
+      <c r="E51" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="18"/>
@@ -19772,7 +19757,7 @@
       <c r="D52" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E52" s="55" t="s">
+      <c r="E52" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F52" s="18"/>
@@ -19788,7 +19773,7 @@
       <c r="D53" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E53" s="55" t="s">
+      <c r="E53" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="18"/>
@@ -19804,7 +19789,7 @@
       <c r="D54" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E54" s="55" t="s">
+      <c r="E54" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="18"/>
@@ -19820,7 +19805,7 @@
       <c r="D55" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E55" s="55" t="s">
+      <c r="E55" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="18"/>
@@ -19836,7 +19821,7 @@
       <c r="D56" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E56" s="56" t="s">
+      <c r="E56" s="51" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="18"/>
@@ -19852,7 +19837,7 @@
       <c r="D57" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E57" s="57" t="s">
+      <c r="E57" s="52" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="18"/>
@@ -19868,7 +19853,7 @@
       <c r="D58" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E58" s="58" t="s">
+      <c r="E58" s="53" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="22"/>
@@ -19906,7 +19891,7 @@
       <c r="D60" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="E60" s="55" t="s">
+      <c r="E60" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="38"/>
@@ -19922,7 +19907,7 @@
       <c r="D61" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E61" s="55" t="s">
+      <c r="E61" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="38"/>
@@ -19938,7 +19923,7 @@
       <c r="D62" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E62" s="55" t="s">
+      <c r="E62" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F62" s="38"/>
@@ -19954,7 +19939,7 @@
       <c r="D63" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E63" s="55" t="s">
+      <c r="E63" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F63" s="38"/>
@@ -19986,7 +19971,7 @@
       <c r="D65" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E65" s="55" t="s">
+      <c r="E65" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="38"/>
@@ -20002,7 +19987,7 @@
       <c r="D66" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="55" t="s">
+      <c r="E66" s="50" t="s">
         <v>22</v>
       </c>
       <c r="F66" s="38"/>
@@ -20034,7 +20019,7 @@
       <c r="D68" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E68" s="55" t="s">
+      <c r="E68" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F68" s="38"/>
@@ -20050,7 +20035,7 @@
       <c r="D69" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E69" s="55" t="s">
+      <c r="E69" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F69" s="38"/>
@@ -20066,7 +20051,7 @@
       <c r="D70" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E70" s="55" t="s">
+      <c r="E70" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="38"/>
@@ -20082,7 +20067,7 @@
       <c r="D71" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E71" s="55" t="s">
+      <c r="E71" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F71" s="38"/>
@@ -20098,7 +20083,7 @@
       <c r="D72" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E72" s="55" t="s">
+      <c r="E72" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F72" s="38"/>
@@ -20114,7 +20099,7 @@
       <c r="D73" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E73" s="55" t="s">
+      <c r="E73" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F73" s="38"/>
@@ -20130,7 +20115,7 @@
       <c r="D74" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E74" s="55" t="s">
+      <c r="E74" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F74" s="38"/>
@@ -20146,7 +20131,7 @@
       <c r="D75" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E75" s="55" t="s">
+      <c r="E75" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F75" s="38"/>
@@ -20162,7 +20147,7 @@
       <c r="D76" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="E76" s="55" t="s">
+      <c r="E76" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F76" s="38"/>
@@ -20388,7 +20373,7 @@
       <c r="D90" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="E90" s="55" t="s">
+      <c r="E90" s="50" t="s">
         <v>36</v>
       </c>
       <c r="F90" s="38"/>
@@ -20626,7 +20611,7 @@
       <c r="D106" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E106" s="55" t="s">
+      <c r="E106" s="50" t="s">
         <v>36</v>
       </c>
       <c r="F106" s="18"/>
@@ -21082,15 +21067,15 @@
       <c r="F135" s="18"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="42"/>
-      <c r="B136" s="43"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="44"/>
-      <c r="E136" s="44"/>
-      <c r="F136" s="45"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="22"/>
     </row>
     <row r="137" ht="14.25" spans="1:6">
-      <c r="A137" s="46"/>
+      <c r="A137" s="42"/>
       <c r="B137" s="20"/>
       <c r="C137" s="21"/>
       <c r="D137" s="21"/>
@@ -21247,7 +21232,7 @@
     </row>
     <row r="148" ht="27" spans="1:6">
       <c r="A148" s="13"/>
-      <c r="B148" s="47" t="s">
+      <c r="B148" s="26" t="s">
         <v>310</v>
       </c>
       <c r="C148" s="15">
@@ -21363,10 +21348,10 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="13"/>
-      <c r="B156" s="48" t="s">
+      <c r="B156" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="C156" s="48">
+      <c r="C156" s="43">
         <v>4</v>
       </c>
       <c r="D156" s="15"/>
@@ -21375,10 +21360,10 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="13"/>
-      <c r="B157" s="48" t="s">
+      <c r="B157" s="43" t="s">
         <v>328</v>
       </c>
-      <c r="C157" s="48">
+      <c r="C157" s="43">
         <v>2</v>
       </c>
       <c r="D157" s="15"/>
@@ -21386,7 +21371,7 @@
       <c r="F157" s="18"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="49"/>
+      <c r="A158" s="44"/>
       <c r="B158" s="14"/>
       <c r="C158" s="15"/>
       <c r="D158" s="15"/>
@@ -21394,7 +21379,7 @@
       <c r="F158" s="18"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="49"/>
+      <c r="A159" s="44"/>
       <c r="B159" s="14"/>
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
@@ -21402,7 +21387,7 @@
       <c r="F159" s="18"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="49"/>
+      <c r="A160" s="44"/>
       <c r="B160" s="14"/>
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
@@ -21410,7 +21395,7 @@
       <c r="F160" s="18"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="49"/>
+      <c r="A161" s="44"/>
       <c r="B161" s="14"/>
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
@@ -21418,7 +21403,7 @@
       <c r="F161" s="18"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="49"/>
+      <c r="A162" s="44"/>
       <c r="B162" s="14"/>
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
@@ -21426,7 +21411,7 @@
       <c r="F162" s="18"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="49"/>
+      <c r="A163" s="44"/>
       <c r="B163" s="14"/>
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
@@ -21434,7 +21419,7 @@
       <c r="F163" s="18"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="49"/>
+      <c r="A164" s="44"/>
       <c r="B164" s="14"/>
       <c r="C164" s="15"/>
       <c r="D164" s="15"/>
@@ -21442,7 +21427,7 @@
       <c r="F164" s="18"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="49"/>
+      <c r="A165" s="44"/>
       <c r="B165" s="14"/>
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
@@ -21450,7 +21435,7 @@
       <c r="F165" s="18"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="49"/>
+      <c r="A166" s="44"/>
       <c r="B166" s="14"/>
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
@@ -21458,7 +21443,7 @@
       <c r="F166" s="18"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="49"/>
+      <c r="A167" s="44"/>
       <c r="B167" s="14"/>
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
@@ -21466,7 +21451,7 @@
       <c r="F167" s="18"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="49"/>
+      <c r="A168" s="44"/>
       <c r="B168" s="14"/>
       <c r="C168" s="15"/>
       <c r="D168" s="15"/>
@@ -21474,7 +21459,7 @@
       <c r="F168" s="18"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="49"/>
+      <c r="A169" s="44"/>
       <c r="B169" s="14"/>
       <c r="C169" s="15"/>
       <c r="D169" s="15"/>
@@ -21482,7 +21467,7 @@
       <c r="F169" s="18"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="49"/>
+      <c r="A170" s="44"/>
       <c r="B170" s="14"/>
       <c r="C170" s="15"/>
       <c r="D170" s="15"/>
@@ -21490,7 +21475,7 @@
       <c r="F170" s="18"/>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="49"/>
+      <c r="A171" s="44"/>
       <c r="B171" s="14"/>
       <c r="C171" s="15"/>
       <c r="D171" s="15"/>
@@ -21498,7 +21483,7 @@
       <c r="F171" s="18"/>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="49"/>
+      <c r="A172" s="44"/>
       <c r="B172" s="14"/>
       <c r="C172" s="15"/>
       <c r="D172" s="15"/>
@@ -21506,7 +21491,7 @@
       <c r="F172" s="18"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="49"/>
+      <c r="A173" s="44"/>
       <c r="B173" s="14"/>
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
@@ -21514,7 +21499,7 @@
       <c r="F173" s="18"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="49"/>
+      <c r="A174" s="44"/>
       <c r="B174" s="14"/>
       <c r="C174" s="15"/>
       <c r="D174" s="15"/>
@@ -21522,7 +21507,7 @@
       <c r="F174" s="18"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="49"/>
+      <c r="A175" s="44"/>
       <c r="B175" s="14"/>
       <c r="C175" s="15"/>
       <c r="D175" s="15"/>
@@ -21530,7 +21515,7 @@
       <c r="F175" s="18"/>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="49"/>
+      <c r="A176" s="44"/>
       <c r="B176" s="14"/>
       <c r="C176" s="15"/>
       <c r="D176" s="15"/>
@@ -21538,7 +21523,7 @@
       <c r="F176" s="18"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="49"/>
+      <c r="A177" s="44"/>
       <c r="B177" s="14"/>
       <c r="C177" s="15"/>
       <c r="D177" s="15"/>
@@ -21546,7 +21531,7 @@
       <c r="F177" s="18"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="49"/>
+      <c r="A178" s="44"/>
       <c r="B178" s="14"/>
       <c r="C178" s="15"/>
       <c r="D178" s="15"/>
@@ -21554,7 +21539,7 @@
       <c r="F178" s="18"/>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="49"/>
+      <c r="A179" s="44"/>
       <c r="B179" s="14"/>
       <c r="C179" s="15"/>
       <c r="D179" s="15"/>
@@ -21562,12 +21547,12 @@
       <c r="F179" s="18"/>
     </row>
     <row r="180" ht="14.25" spans="1:6">
-      <c r="A180" s="50"/>
-      <c r="B180" s="51"/>
-      <c r="C180" s="52"/>
-      <c r="D180" s="52"/>
-      <c r="E180" s="52"/>
-      <c r="F180" s="53"/>
+      <c r="A180" s="45"/>
+      <c r="B180" s="46"/>
+      <c r="C180" s="47"/>
+      <c r="D180" s="47"/>
+      <c r="E180" s="47"/>
+      <c r="F180" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/器件清单.xlsx
+++ b/器件清单.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329">
-  <si>
-    <t>DCETVP40MB01-REV.1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330">
+  <si>
+    <t>DCETVP40MB01-REV.2</t>
   </si>
   <si>
     <t>类别</t>
@@ -43,7 +43,7 @@
     <t>18pF/50V</t>
   </si>
   <si>
-    <t>C133, C134</t>
+    <t>C103, C104, C133, C134</t>
   </si>
   <si>
     <t>0402</t>
@@ -64,12 +64,6 @@
     <t>C176, C177, C183</t>
   </si>
   <si>
-    <t>47pF/50V</t>
-  </si>
-  <si>
-    <t>C103, C104</t>
-  </si>
-  <si>
     <t>56pF/50V</t>
   </si>
   <si>
@@ -232,12 +226,15 @@
     <t>0Ω</t>
   </si>
   <si>
-    <t>R31, R32, R40, R73, R84, R85, R93, R94, R95, R100, R107, R108, R109, R116, R117, R118, R132, R133, R139, R146</t>
+    <t>R31, R32, R40, R73,  R85, R94, R95, R100, R107, R108, R109, R116, R117, R118, R132, R133, R139, R146</t>
   </si>
   <si>
     <t>R74</t>
   </si>
   <si>
+    <t>R84, R93</t>
+  </si>
+  <si>
     <t>0.825Ω/1%</t>
   </si>
   <si>
@@ -314,6 +311,12 @@
   </si>
   <si>
     <t>R59</t>
+  </si>
+  <si>
+    <t>910Ω</t>
+  </si>
+  <si>
+    <t>R171, R172</t>
   </si>
   <si>
     <t>1K</t>
@@ -1012,10 +1015,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1050,28 +1053,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1085,29 +1097,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1116,9 +1105,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1140,23 +1135,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1180,7 +1183,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1195,43 +1198,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,13 +1228,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1267,19 +1258,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,43 +1300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,25 +1318,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,12 +1348,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1557,6 +1560,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -1618,6 +1658,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -1640,89 +1691,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1771,11 +1749,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1800,15 +1799,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1820,21 +1810,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1854,17 +1829,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1876,10 +1854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1888,19 +1866,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1909,116 +1887,116 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2088,6 +2066,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2100,17 +2090,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -2118,28 +2108,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2154,16 +2156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2172,13 +2165,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2502,8 +2495,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18932,12 +18925,12 @@
         <v>8</v>
       </c>
       <c r="C3" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="12" t="s">
@@ -18955,7 +18948,7 @@
       <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="16" t="s">
@@ -18973,7 +18966,7 @@
       <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -18991,7 +18984,7 @@
       <c r="D6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="16" t="s">
@@ -19004,13 +18997,13 @@
         <v>18</v>
       </c>
       <c r="C7" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="50" t="s">
-        <v>10</v>
+      <c r="E7" s="55" t="s">
+        <v>20</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>11</v>
@@ -19019,91 +19012,91 @@
     <row r="8" spans="1:6">
       <c r="A8" s="13"/>
       <c r="B8" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="15">
         <v>1</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="50" t="s">
         <v>22</v>
       </c>
+      <c r="E8" s="55" t="s">
+        <v>10</v>
+      </c>
       <c r="F8" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" ht="54" spans="1:6">
       <c r="A9" s="13"/>
       <c r="B9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="15">
+        <v>15</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="15">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="10" ht="54" spans="1:6">
+    <row r="10" spans="1:6">
       <c r="A10" s="13"/>
       <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="15">
-        <v>15</v>
-      </c>
-      <c r="D10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" ht="283.5" spans="1:6">
       <c r="A11" s="13"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="15">
-        <v>2</v>
-      </c>
-      <c r="D11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="12" ht="283.5" spans="1:6">
+    <row r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="15">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -19112,34 +19105,34 @@
         <v>32</v>
       </c>
       <c r="C13" s="15">
-        <v>5</v>
-      </c>
-      <c r="D13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="50" t="s">
-        <v>10</v>
+      <c r="E13" s="55" t="s">
+        <v>34</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="50" t="s">
         <v>36</v>
       </c>
+      <c r="E14" s="15">
+        <v>1210</v>
+      </c>
       <c r="F14" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -19153,154 +19146,144 @@
       <c r="D15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="15">
-        <v>1210</v>
+      <c r="E15" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>34</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" ht="54" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="15">
-        <v>4</v>
-      </c>
-      <c r="D17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="50" t="s">
-        <v>36</v>
+      <c r="E17" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="18" ht="54" spans="1:6">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="15">
-        <v>14</v>
-      </c>
-      <c r="D18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="50" t="s">
-        <v>10</v>
+      <c r="E18" s="55" t="s">
+        <v>34</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" customFormat="1" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="50" t="s">
-        <v>36</v>
+      <c r="E19" s="55" t="s">
+        <v>20</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:6">
+    <row r="20" customFormat="1" ht="27" spans="1:6">
       <c r="A20" s="13"/>
       <c r="B20" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="15">
-        <v>3</v>
-      </c>
-      <c r="D20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="50" t="s">
-        <v>22</v>
+      <c r="E20" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="27" spans="1:6">
+    <row r="21" customFormat="1" spans="1:6">
       <c r="A21" s="13"/>
-      <c r="B21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="15">
-        <v>7</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" customFormat="1" spans="1:6">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="18"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="29" t="s">
         <v>6</v>
       </c>
     </row>
@@ -19309,103 +19292,103 @@
         <v>7</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" s="15">
         <v>10</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>36</v>
+        <v>51</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>34</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="15">
         <v>4</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>22</v>
+        <v>53</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>20</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="67.5" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="15">
         <v>20</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>22</v>
+        <v>55</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>20</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="15">
         <v>3</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E28" s="15">
         <v>1206</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29" s="15">
         <v>4</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E29" s="15">
         <v>1210</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:6">
       <c r="A30" s="13"/>
-      <c r="B30" s="26" t="s">
-        <v>62</v>
+      <c r="B30" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="C30" s="15">
         <v>3</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="18"/>
@@ -19413,13 +19396,13 @@
     <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="15">
         <v>2</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E31" s="15">
         <v>7343</v>
@@ -19428,14 +19411,14 @@
     </row>
     <row r="32" ht="27" spans="1:6">
       <c r="A32" s="13"/>
-      <c r="B32" s="26" t="s">
-        <v>66</v>
+      <c r="B32" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="C32" s="15">
         <v>2</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="18"/>
@@ -19443,13 +19426,13 @@
     <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" s="15">
         <v>2</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E33" s="15">
         <v>7343</v>
@@ -19457,1596 +19440,1612 @@
       <c r="F33" s="18"/>
     </row>
     <row r="34" ht="67.5" spans="1:6">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="15">
+        <v>18</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="15">
-        <v>20</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="13"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35" s="15">
         <v>1</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="50" t="s">
-        <v>22</v>
+        <v>71</v>
+      </c>
+      <c r="E35" s="55" t="s">
+        <v>20</v>
       </c>
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14" t="s">
-        <v>74</v>
+      <c r="A36" s="32"/>
+      <c r="B36" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="C36" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>22</v>
+        <v>72</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1206</v>
       </c>
       <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="13"/>
-      <c r="B37" s="15" t="s">
-        <v>76</v>
+      <c r="A37" s="32"/>
+      <c r="B37" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="C37" s="15">
         <v>1</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="50" t="s">
-        <v>10</v>
+        <v>74</v>
+      </c>
+      <c r="E37" s="55" t="s">
+        <v>20</v>
       </c>
       <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="13"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C38" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="18"/>
     </row>
-    <row r="39" ht="27" spans="1:6">
-      <c r="A39" s="13"/>
+    <row r="39" spans="1:6">
+      <c r="A39" s="32"/>
       <c r="B39" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C39" s="15">
-        <v>5</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="18"/>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="13"/>
+    <row r="40" ht="27" spans="1:6">
+      <c r="A40" s="32"/>
       <c r="B40" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C40" s="15">
-        <v>4</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14" t="s">
-        <v>84</v>
+      <c r="A41" s="32"/>
+      <c r="B41" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="C41" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="15">
-        <v>1206</v>
+        <v>82</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="13"/>
-      <c r="B42" s="15" t="s">
-        <v>86</v>
+      <c r="A42" s="32"/>
+      <c r="B42" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="C42" s="15">
         <v>2</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="50" t="s">
-        <v>10</v>
+        <v>84</v>
+      </c>
+      <c r="E42" s="15">
+        <v>1206</v>
       </c>
       <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14" t="s">
-        <v>88</v>
+      <c r="A43" s="32"/>
+      <c r="B43" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="C43" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="50" t="s">
-        <v>36</v>
+        <v>86</v>
+      </c>
+      <c r="E43" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="13"/>
-      <c r="B44" s="15" t="s">
-        <v>90</v>
+      <c r="A44" s="32"/>
+      <c r="B44" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C44" s="15">
         <v>1</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="15">
-        <v>1206</v>
+        <v>88</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>34</v>
       </c>
       <c r="F44" s="18"/>
     </row>
-    <row r="45" s="2" customFormat="1" ht="27" spans="1:6">
-      <c r="A45" s="13"/>
+    <row r="45" spans="1:6">
+      <c r="A45" s="32"/>
       <c r="B45" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="15">
+        <v>1</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="15">
+        <v>1206</v>
+      </c>
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A46" s="32"/>
+      <c r="B46" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="15">
+        <v>5</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="15">
-        <v>5</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" s="50" t="s">
+      <c r="E46" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="27"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="13"/>
-      <c r="B46" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="15">
-        <v>3</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="18"/>
+      <c r="F46" s="33"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14" t="s">
-        <v>96</v>
+      <c r="A47" s="32"/>
+      <c r="B47" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="C47" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="50" t="s">
-        <v>36</v>
+        <v>94</v>
+      </c>
+      <c r="E47" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15" t="s">
-        <v>98</v>
+      <c r="A48" s="32"/>
+      <c r="B48" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="C48" s="15">
         <v>1</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="50" t="s">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="E48" s="55" t="s">
+        <v>34</v>
       </c>
       <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14" t="s">
-        <v>100</v>
+      <c r="A49" s="32"/>
+      <c r="B49" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="C49" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14" t="s">
-        <v>102</v>
+      <c r="A50" s="32"/>
+      <c r="B50" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="C50" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="18"/>
     </row>
-    <row r="51" ht="27" spans="1:6">
-      <c r="A51" s="13"/>
+    <row r="51" spans="1:6">
+      <c r="A51" s="32"/>
       <c r="B51" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C51" s="15">
-        <v>7</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="13"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C52" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E52" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F52" s="18"/>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="13"/>
+    <row r="53" ht="27" spans="1:6">
+      <c r="A53" s="32"/>
       <c r="B53" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C53" s="15">
-        <v>2</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="13"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C54" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="18"/>
     </row>
-    <row r="55" ht="27" spans="1:6">
-      <c r="A55" s="13"/>
+    <row r="55" spans="1:6">
+      <c r="A55" s="32"/>
       <c r="B55" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C55" s="15">
-        <v>6</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="18"/>
     </row>
-    <row r="56" customFormat="1" spans="1:6">
-      <c r="A56" s="13"/>
-      <c r="B56" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="29">
+    <row r="56" spans="1:6">
+      <c r="A56" s="32"/>
+      <c r="B56" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="15">
         <v>1</v>
       </c>
-      <c r="D56" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="51" t="s">
+      <c r="D56" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="18"/>
     </row>
-    <row r="57" customFormat="1" spans="1:6">
-      <c r="A57" s="13"/>
-      <c r="B57" s="31" t="s">
-        <v>116</v>
+    <row r="57" ht="27" spans="1:6">
+      <c r="A57" s="32"/>
+      <c r="B57" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="C57" s="15">
-        <v>1</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E57" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="18"/>
     </row>
     <row r="58" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A58" s="19"/>
-      <c r="B58" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="21">
+      <c r="A58" s="34"/>
+      <c r="B58" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="36">
         <v>1</v>
       </c>
-      <c r="D58" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E58" s="53" t="s">
+      <c r="D58" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="22"/>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:6">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="36" t="s">
+      <c r="F59" s="29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="60" ht="40.5" spans="1:6">
-      <c r="A60" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" s="14" t="s">
+    <row r="60" customFormat="1" spans="1:6">
+      <c r="A60" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="15">
+        <v>1</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A61" s="41"/>
+      <c r="B61" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="25">
+        <v>1</v>
+      </c>
+      <c r="D61" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="15">
+      <c r="E61" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="26"/>
+    </row>
+    <row r="62" ht="40.5" spans="1:6">
+      <c r="A62" s="41"/>
+      <c r="B62" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="15">
         <v>9</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60" s="50" t="s">
+      <c r="D62" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="38"/>
+      <c r="F62" s="18"/>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="37"/>
-      <c r="B61" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="15">
+    <row r="63" spans="1:6">
+      <c r="A63" s="41"/>
+      <c r="B63" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="15">
         <v>1</v>
       </c>
-      <c r="D61" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E61" s="50" t="s">
+      <c r="D63" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E63" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="38"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="37"/>
-      <c r="B62" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" s="15">
-        <v>1</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E62" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="38"/>
-    </row>
-    <row r="63" ht="81" spans="1:6">
-      <c r="A63" s="37"/>
-      <c r="B63" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="15">
-        <v>22</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E63" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="38"/>
+      <c r="F63" s="18"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="37"/>
+      <c r="A64" s="41"/>
       <c r="B64" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="15">
+        <v>1</v>
+      </c>
+      <c r="D64" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="15">
-        <v>2</v>
-      </c>
-      <c r="D64" s="15" t="s">
+      <c r="E64" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" ht="81" spans="1:6">
+      <c r="A65" s="41"/>
+      <c r="B65" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="15">
+        <v>22</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E64" s="15">
-        <v>1812</v>
-      </c>
-      <c r="F64" s="38"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="37"/>
-      <c r="B65" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="15">
-        <v>1</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E65" s="50" t="s">
+      <c r="E65" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="38"/>
+      <c r="F65" s="18"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="37"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C66" s="15">
         <v>2</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E66" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" s="38"/>
+        <v>129</v>
+      </c>
+      <c r="E66" s="15">
+        <v>1812</v>
+      </c>
+      <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="37"/>
+      <c r="A67" s="41"/>
       <c r="B67" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="15">
+        <v>1</v>
+      </c>
+      <c r="D67" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="15">
-        <v>2</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E67" s="15">
-        <v>1812</v>
-      </c>
-      <c r="F67" s="38"/>
+      <c r="E67" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="37"/>
+      <c r="A68" s="41"/>
       <c r="B68" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C68" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E68" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="38"/>
+        <v>133</v>
+      </c>
+      <c r="E68" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="37"/>
+      <c r="A69" s="41"/>
       <c r="B69" s="14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C69" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E69" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="38"/>
+        <v>134</v>
+      </c>
+      <c r="E69" s="15">
+        <v>1812</v>
+      </c>
+      <c r="F69" s="18"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="37"/>
+      <c r="A70" s="41"/>
       <c r="B70" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C70" s="15">
         <v>1</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E70" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="E70" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="38"/>
+      <c r="F70" s="18"/>
     </row>
-    <row r="71" ht="40.5" spans="1:6">
-      <c r="A71" s="37"/>
+    <row r="71" spans="1:6">
+      <c r="A71" s="41"/>
       <c r="B71" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C71" s="15">
-        <v>11</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E71" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E71" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="38"/>
+      <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="37"/>
+      <c r="A72" s="41"/>
       <c r="B72" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C72" s="15">
         <v>1</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E72" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="E72" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="38"/>
+      <c r="F72" s="18"/>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="37"/>
+    <row r="73" ht="40.5" spans="1:6">
+      <c r="A73" s="41"/>
       <c r="B73" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C73" s="15">
-        <v>2</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E73" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E73" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="38"/>
+      <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="37"/>
+      <c r="A74" s="41"/>
       <c r="B74" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C74" s="15">
         <v>1</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E74" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E74" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="38"/>
+      <c r="F74" s="18"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="37"/>
+      <c r="A75" s="41"/>
       <c r="B75" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C75" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E75" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E75" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F75" s="38"/>
+      <c r="F75" s="18"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="37"/>
+      <c r="A76" s="41"/>
       <c r="B76" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" s="15">
+        <v>1</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E76" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="18"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="41"/>
+      <c r="B77" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" s="15">
+        <v>1</v>
+      </c>
+      <c r="D77" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="15">
-        <v>2</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E76" s="50" t="s">
+      <c r="E77" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F76" s="38"/>
-    </row>
-    <row r="77" ht="27" spans="1:6">
-      <c r="A77" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C77" s="15">
-        <v>6</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F77" s="38"/>
+      <c r="F77" s="18"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="37"/>
+      <c r="A78" s="44"/>
       <c r="B78" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="15">
+        <v>2</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E78" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="18"/>
+    </row>
+    <row r="79" ht="27" spans="1:6">
+      <c r="A79" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" s="15">
+        <v>6</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E79" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="15">
-        <v>1</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F78" s="38"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="37"/>
-      <c r="B79" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C79" s="15">
-        <v>1</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F79" s="38"/>
+      <c r="F79" s="18"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="37"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C80" s="15">
         <v>1</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F80" s="38"/>
+        <v>159</v>
+      </c>
+      <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="37"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C81" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F81" s="38"/>
+        <v>159</v>
+      </c>
+      <c r="F81" s="18"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="37"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C82" s="15">
         <v>1</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F82" s="38"/>
+        <v>164</v>
+      </c>
+      <c r="F82" s="18"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="37"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="15">
+        <v>4</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" s="18"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="13"/>
+      <c r="B84" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="15">
+        <v>1</v>
+      </c>
+      <c r="D84" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="15">
-        <v>1</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F83" s="38"/>
-    </row>
-    <row r="84" ht="27" spans="1:6">
-      <c r="A84" s="37"/>
-      <c r="B84" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" s="15">
-        <v>8</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>171</v>
-      </c>
       <c r="E84" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="F84" s="38"/>
+        <v>164</v>
+      </c>
+      <c r="F84" s="18"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="37"/>
+      <c r="A85" s="13"/>
       <c r="B85" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="15">
+        <v>1</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" s="18"/>
+    </row>
+    <row r="86" ht="27" spans="1:6">
+      <c r="A86" s="13"/>
+      <c r="B86" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="15">
+        <v>8</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E86" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C85" s="15">
+      <c r="F86" s="18"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="13"/>
+      <c r="B87" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87" s="15">
         <v>2</v>
       </c>
-      <c r="D85" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E85" s="15" t="s">
+      <c r="D87" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="F85" s="38"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="37"/>
-      <c r="B86" s="14" t="s">
+      <c r="E87" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C86" s="15">
-        <v>1</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="F86" s="38"/>
-    </row>
-    <row r="87" ht="54" spans="1:6">
-      <c r="A87" s="37"/>
-      <c r="B87" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C87" s="15">
-        <v>14</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F87" s="38"/>
+      <c r="F87" s="18"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="37"/>
+      <c r="A88" s="13"/>
       <c r="B88" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" s="15">
+        <v>1</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F88" s="18"/>
+    </row>
+    <row r="89" ht="54" spans="1:6">
+      <c r="A89" s="13"/>
+      <c r="B89" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="15">
+        <v>14</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E89" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C88" s="15">
-        <v>5</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F88" s="38"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="37"/>
-      <c r="B89" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C89" s="15">
-        <v>2</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="F89" s="38"/>
+      <c r="F89" s="18"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="37"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C90" s="15">
-        <v>1</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="E90" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F90" s="38"/>
+        <v>5</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F90" s="18"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="37"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C91" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="F91" s="38"/>
+        <v>187</v>
+      </c>
+      <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="37"/>
+      <c r="A92" s="13"/>
       <c r="B92" s="14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C92" s="15">
         <v>1</v>
       </c>
       <c r="D92" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E92" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" s="18"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="13"/>
+      <c r="B93" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="15">
+        <v>1</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F93" s="18"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="13"/>
+      <c r="B94" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E92" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F92" s="38"/>
-    </row>
-    <row r="93" customFormat="1" spans="1:6">
-      <c r="A93" s="37"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="38"/>
-    </row>
-    <row r="94" customFormat="1" spans="1:6">
-      <c r="A94" s="37"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="38"/>
+      <c r="C94" s="15">
+        <v>1</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F94" s="18"/>
     </row>
     <row r="95" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A95" s="39"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="40"/>
+      <c r="A95" s="45"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="47"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="48"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="1:6">
-      <c r="A96" s="23" t="s">
+      <c r="A96" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D96" s="24" t="s">
+      <c r="D96" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E96" s="24" t="s">
+      <c r="E96" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F96" s="25" t="s">
+      <c r="F96" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C97" s="15">
         <v>1</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F97" s="18"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="13"/>
       <c r="B98" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C98" s="15">
         <v>1</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F98" s="18"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="13"/>
       <c r="B99" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C99" s="15">
         <v>5</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F99" s="18"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="13"/>
       <c r="B100" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C100" s="15">
         <v>4</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F100" s="18"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="13"/>
       <c r="B101" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C101" s="15">
         <v>1</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F101" s="18"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="13"/>
       <c r="B102" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C102" s="15">
         <v>1</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F102" s="18"/>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="13"/>
       <c r="B103" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C103" s="15">
         <v>1</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F103" s="18"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C104" s="15">
         <v>1</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E104" s="15"/>
       <c r="F104" s="18"/>
     </row>
     <row r="105" ht="27" spans="1:6">
       <c r="A105" s="13"/>
-      <c r="B105" s="26" t="s">
-        <v>213</v>
+      <c r="B105" s="30" t="s">
+        <v>214</v>
       </c>
       <c r="C105" s="15">
         <v>4</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E105" s="15"/>
-      <c r="F105" s="41" t="s">
-        <v>215</v>
+      <c r="F105" s="49" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="106" ht="67.5" spans="1:6">
       <c r="A106" s="13"/>
       <c r="B106" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C106" s="15">
         <v>22</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="E106" s="50" t="s">
-        <v>36</v>
+        <v>218</v>
+      </c>
+      <c r="E106" s="55" t="s">
+        <v>34</v>
       </c>
       <c r="F106" s="18"/>
     </row>
     <row r="107" ht="27" spans="1:6">
       <c r="A107" s="13"/>
-      <c r="B107" s="26" t="s">
-        <v>218</v>
+      <c r="B107" s="30" t="s">
+        <v>219</v>
       </c>
       <c r="C107" s="15">
         <v>2</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E107" s="15"/>
-      <c r="F107" s="41" t="s">
-        <v>220</v>
+      <c r="F107" s="49" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="108" ht="27" spans="1:6">
       <c r="A108" s="13"/>
-      <c r="B108" s="26" t="s">
-        <v>221</v>
+      <c r="B108" s="30" t="s">
+        <v>222</v>
       </c>
       <c r="C108" s="15">
         <v>1</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E108" s="15"/>
-      <c r="F108" s="41" t="s">
-        <v>223</v>
+      <c r="F108" s="49" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="109" ht="27" spans="1:6">
       <c r="A109" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B109" s="26" t="s">
         <v>225</v>
+      </c>
+      <c r="B109" s="30" t="s">
+        <v>226</v>
       </c>
       <c r="C109" s="15">
         <v>1</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E109" s="15"/>
       <c r="F109" s="18"/>
     </row>
     <row r="110" ht="27" spans="1:6">
       <c r="A110" s="13"/>
-      <c r="B110" s="26" t="s">
-        <v>227</v>
+      <c r="B110" s="30" t="s">
+        <v>228</v>
       </c>
       <c r="C110" s="15">
         <v>2</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E110" s="15"/>
       <c r="F110" s="18"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C111" s="15">
         <v>1</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F111" s="18"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="13"/>
       <c r="B112" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C112" s="15">
         <v>1</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F112" s="18"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="13"/>
       <c r="B113" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C113" s="15">
         <v>1</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F113" s="18"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="13"/>
       <c r="B114" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C114" s="15">
         <v>1</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F114" s="18"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="13"/>
       <c r="B115" s="14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C115" s="15">
         <v>4</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F115" s="18"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="13"/>
       <c r="B116" s="14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C116" s="15">
         <v>4</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F116" s="18"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="13"/>
       <c r="B117" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C117" s="15">
         <v>1</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F117" s="18"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="13"/>
       <c r="B118" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C118" s="15">
         <v>1</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F118" s="18"/>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="13"/>
       <c r="B119" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C119" s="15">
         <v>1</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F119" s="18"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="13"/>
       <c r="B120" s="14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C120" s="15">
         <v>1</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F120" s="18"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="13"/>
       <c r="B121" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C121" s="15">
         <v>1</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F121" s="18"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="13"/>
       <c r="B122" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C122" s="15">
         <v>1</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F122" s="18"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="13"/>
       <c r="B123" s="14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C123" s="15">
         <v>3</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F123" s="18"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="13"/>
       <c r="B124" s="14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C124" s="15">
         <v>1</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F124" s="18"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="13"/>
       <c r="B125" s="14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C125" s="15">
         <v>2</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F125" s="18"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="13"/>
       <c r="B126" s="14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C126" s="15">
         <v>1</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F126" s="18"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="13"/>
       <c r="B127" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C127" s="15">
         <v>2</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F127" s="18"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="13"/>
       <c r="B128" s="14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C128" s="15">
         <v>1</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E128" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F128" s="18"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="13"/>
       <c r="B129" s="14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C129" s="15">
         <v>1</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E129" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F129" s="18"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="13"/>
       <c r="B130" s="14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C130" s="15">
         <v>2</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F130" s="18"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="13"/>
       <c r="B131" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C131" s="15">
         <v>1</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F131" s="18"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="13"/>
       <c r="B132" s="14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C132" s="15">
         <v>1</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F132" s="18"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C133" s="15">
         <v>1</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F133" s="18"/>
     </row>
@@ -21067,53 +21066,53 @@
       <c r="F135" s="18"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="19"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="21"/>
-      <c r="D136" s="21"/>
-      <c r="E136" s="21"/>
-      <c r="F136" s="22"/>
+      <c r="A136" s="23"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="25"/>
+      <c r="F136" s="26"/>
     </row>
     <row r="137" ht="14.25" spans="1:6">
-      <c r="A137" s="42"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="21"/>
-      <c r="D137" s="21"/>
-      <c r="E137" s="21"/>
-      <c r="F137" s="22"/>
+      <c r="A137" s="50"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="25"/>
+      <c r="F137" s="26"/>
     </row>
     <row r="138" s="1" customFormat="1" spans="1:6">
-      <c r="A138" s="23" t="s">
+      <c r="A138" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B138" s="24" t="s">
+      <c r="B138" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C138" s="24" t="s">
+      <c r="C138" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D138" s="24" t="s">
+      <c r="D138" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E138" s="24" t="s">
+      <c r="E138" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F138" s="25" t="s">
+      <c r="F138" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C139" s="15">
         <v>1</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E139" s="15"/>
       <c r="F139" s="18"/>
@@ -21121,13 +21120,13 @@
     <row r="140" spans="1:6">
       <c r="A140" s="13"/>
       <c r="B140" s="14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C140" s="15">
         <v>1</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E140" s="15"/>
       <c r="F140" s="18"/>
@@ -21135,69 +21134,69 @@
     <row r="141" spans="1:6">
       <c r="A141" s="13"/>
       <c r="B141" s="14" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C141" s="15">
         <v>1</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E141" s="15"/>
       <c r="F141" s="18"/>
     </row>
     <row r="142" ht="27" spans="1:6">
       <c r="A142" s="13"/>
-      <c r="B142" s="26" t="s">
-        <v>298</v>
+      <c r="B142" s="30" t="s">
+        <v>299</v>
       </c>
       <c r="C142" s="15">
         <v>1</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E142" s="15"/>
       <c r="F142" s="18"/>
     </row>
     <row r="143" ht="27" spans="1:6">
       <c r="A143" s="13"/>
-      <c r="B143" s="26" t="s">
-        <v>300</v>
+      <c r="B143" s="30" t="s">
+        <v>301</v>
       </c>
       <c r="C143" s="15">
         <v>1</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E143" s="15"/>
       <c r="F143" s="18"/>
     </row>
     <row r="144" ht="27" spans="1:6">
       <c r="A144" s="13"/>
-      <c r="B144" s="26" t="s">
-        <v>302</v>
+      <c r="B144" s="30" t="s">
+        <v>303</v>
       </c>
       <c r="C144" s="15">
         <v>1</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E144" s="15"/>
       <c r="F144" s="18"/>
     </row>
     <row r="145" ht="27" spans="1:6">
       <c r="A145" s="13"/>
-      <c r="B145" s="26" t="s">
-        <v>304</v>
+      <c r="B145" s="30" t="s">
+        <v>305</v>
       </c>
       <c r="C145" s="15">
         <v>1</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E145" s="15"/>
       <c r="F145" s="18"/>
@@ -21205,13 +21204,13 @@
     <row r="146" spans="1:6">
       <c r="A146" s="13"/>
       <c r="B146" s="14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C146" s="15">
         <v>1</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E146" s="15"/>
       <c r="F146" s="18"/>
@@ -21219,27 +21218,27 @@
     <row r="147" spans="1:6">
       <c r="A147" s="13"/>
       <c r="B147" s="14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C147" s="15">
         <v>1</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E147" s="15"/>
       <c r="F147" s="18"/>
     </row>
     <row r="148" ht="27" spans="1:6">
       <c r="A148" s="13"/>
-      <c r="B148" s="26" t="s">
-        <v>310</v>
+      <c r="B148" s="30" t="s">
+        <v>311</v>
       </c>
       <c r="C148" s="15">
         <v>1</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E148" s="15"/>
       <c r="F148" s="18"/>
@@ -21247,13 +21246,13 @@
     <row r="149" spans="1:6">
       <c r="A149" s="13"/>
       <c r="B149" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C149" s="15">
         <v>1</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E149" s="15"/>
       <c r="F149" s="18"/>
@@ -21261,13 +21260,13 @@
     <row r="150" spans="1:6">
       <c r="A150" s="13"/>
       <c r="B150" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C150" s="15">
         <v>1</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E150" s="15"/>
       <c r="F150" s="18"/>
@@ -21275,57 +21274,57 @@
     <row r="151" spans="1:6">
       <c r="A151" s="13"/>
       <c r="B151" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C151" s="15">
         <v>4</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E151" s="15"/>
       <c r="F151" s="18"/>
     </row>
     <row r="152" ht="27" spans="1:6">
       <c r="A152" s="13"/>
-      <c r="B152" s="26" t="s">
-        <v>318</v>
+      <c r="B152" s="30" t="s">
+        <v>319</v>
       </c>
       <c r="C152" s="15">
         <v>1</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E152" s="15"/>
       <c r="F152" s="18"/>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C153" s="15">
         <v>5</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E153" s="15"/>
       <c r="F153" s="18"/>
     </row>
     <row r="154" ht="27" spans="1:6">
       <c r="A154" s="13"/>
-      <c r="B154" s="26" t="s">
-        <v>323</v>
+      <c r="B154" s="30" t="s">
+        <v>324</v>
       </c>
       <c r="C154" s="15">
         <v>1</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E154" s="15">
         <v>2920</v>
@@ -21334,24 +21333,24 @@
     </row>
     <row r="155" ht="27" spans="1:6">
       <c r="A155" s="13"/>
-      <c r="B155" s="26" t="s">
-        <v>325</v>
+      <c r="B155" s="30" t="s">
+        <v>326</v>
       </c>
       <c r="C155" s="15">
         <v>1</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E155" s="15"/>
       <c r="F155" s="18"/>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="13"/>
-      <c r="B156" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="C156" s="43">
+      <c r="B156" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C156" s="51">
         <v>4</v>
       </c>
       <c r="D156" s="15"/>
@@ -21360,10 +21359,10 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="13"/>
-      <c r="B157" s="43" t="s">
-        <v>328</v>
-      </c>
-      <c r="C157" s="43">
+      <c r="B157" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="C157" s="51">
         <v>2</v>
       </c>
       <c r="D157" s="15"/>
@@ -21371,7 +21370,7 @@
       <c r="F157" s="18"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="44"/>
+      <c r="A158" s="52"/>
       <c r="B158" s="14"/>
       <c r="C158" s="15"/>
       <c r="D158" s="15"/>
@@ -21379,7 +21378,7 @@
       <c r="F158" s="18"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="44"/>
+      <c r="A159" s="52"/>
       <c r="B159" s="14"/>
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
@@ -21387,7 +21386,7 @@
       <c r="F159" s="18"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="44"/>
+      <c r="A160" s="52"/>
       <c r="B160" s="14"/>
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
@@ -21395,7 +21394,7 @@
       <c r="F160" s="18"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="44"/>
+      <c r="A161" s="52"/>
       <c r="B161" s="14"/>
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
@@ -21403,7 +21402,7 @@
       <c r="F161" s="18"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="44"/>
+      <c r="A162" s="52"/>
       <c r="B162" s="14"/>
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
@@ -21411,7 +21410,7 @@
       <c r="F162" s="18"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="44"/>
+      <c r="A163" s="52"/>
       <c r="B163" s="14"/>
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
@@ -21419,7 +21418,7 @@
       <c r="F163" s="18"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="44"/>
+      <c r="A164" s="52"/>
       <c r="B164" s="14"/>
       <c r="C164" s="15"/>
       <c r="D164" s="15"/>
@@ -21427,7 +21426,7 @@
       <c r="F164" s="18"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="44"/>
+      <c r="A165" s="52"/>
       <c r="B165" s="14"/>
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
@@ -21435,7 +21434,7 @@
       <c r="F165" s="18"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="44"/>
+      <c r="A166" s="52"/>
       <c r="B166" s="14"/>
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
@@ -21443,7 +21442,7 @@
       <c r="F166" s="18"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="44"/>
+      <c r="A167" s="52"/>
       <c r="B167" s="14"/>
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
@@ -21451,7 +21450,7 @@
       <c r="F167" s="18"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="44"/>
+      <c r="A168" s="52"/>
       <c r="B168" s="14"/>
       <c r="C168" s="15"/>
       <c r="D168" s="15"/>
@@ -21459,7 +21458,7 @@
       <c r="F168" s="18"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="44"/>
+      <c r="A169" s="52"/>
       <c r="B169" s="14"/>
       <c r="C169" s="15"/>
       <c r="D169" s="15"/>
@@ -21467,7 +21466,7 @@
       <c r="F169" s="18"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="44"/>
+      <c r="A170" s="52"/>
       <c r="B170" s="14"/>
       <c r="C170" s="15"/>
       <c r="D170" s="15"/>
@@ -21475,7 +21474,7 @@
       <c r="F170" s="18"/>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="44"/>
+      <c r="A171" s="52"/>
       <c r="B171" s="14"/>
       <c r="C171" s="15"/>
       <c r="D171" s="15"/>
@@ -21483,7 +21482,7 @@
       <c r="F171" s="18"/>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="44"/>
+      <c r="A172" s="52"/>
       <c r="B172" s="14"/>
       <c r="C172" s="15"/>
       <c r="D172" s="15"/>
@@ -21491,7 +21490,7 @@
       <c r="F172" s="18"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="44"/>
+      <c r="A173" s="52"/>
       <c r="B173" s="14"/>
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
@@ -21499,7 +21498,7 @@
       <c r="F173" s="18"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="44"/>
+      <c r="A174" s="52"/>
       <c r="B174" s="14"/>
       <c r="C174" s="15"/>
       <c r="D174" s="15"/>
@@ -21507,7 +21506,7 @@
       <c r="F174" s="18"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="44"/>
+      <c r="A175" s="52"/>
       <c r="B175" s="14"/>
       <c r="C175" s="15"/>
       <c r="D175" s="15"/>
@@ -21515,7 +21514,7 @@
       <c r="F175" s="18"/>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="44"/>
+      <c r="A176" s="52"/>
       <c r="B176" s="14"/>
       <c r="C176" s="15"/>
       <c r="D176" s="15"/>
@@ -21523,7 +21522,7 @@
       <c r="F176" s="18"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="44"/>
+      <c r="A177" s="52"/>
       <c r="B177" s="14"/>
       <c r="C177" s="15"/>
       <c r="D177" s="15"/>
@@ -21531,7 +21530,7 @@
       <c r="F177" s="18"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="44"/>
+      <c r="A178" s="52"/>
       <c r="B178" s="14"/>
       <c r="C178" s="15"/>
       <c r="D178" s="15"/>
@@ -21539,7 +21538,7 @@
       <c r="F178" s="18"/>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="44"/>
+      <c r="A179" s="52"/>
       <c r="B179" s="14"/>
       <c r="C179" s="15"/>
       <c r="D179" s="15"/>
@@ -21547,7 +21546,7 @@
       <c r="F179" s="18"/>
     </row>
     <row r="180" ht="14.25" spans="1:6">
-      <c r="A180" s="45"/>
+      <c r="A180" s="53"/>
       <c r="B180" s="46"/>
       <c r="C180" s="47"/>
       <c r="D180" s="47"/>
@@ -21559,8 +21558,8 @@
     <mergeCell ref="A3:A23"/>
     <mergeCell ref="A25:A33"/>
     <mergeCell ref="A34:A58"/>
-    <mergeCell ref="A60:A76"/>
-    <mergeCell ref="A77:A95"/>
+    <mergeCell ref="A60:A78"/>
+    <mergeCell ref="A79:A95"/>
     <mergeCell ref="A97:A103"/>
     <mergeCell ref="A104:A108"/>
     <mergeCell ref="A109:A110"/>

--- a/器件清单.xlsx
+++ b/器件清单.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330">
-  <si>
-    <t>DCETVP40MB01-REV.2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329">
+  <si>
+    <t>DCETVP40MB01-REV.3</t>
   </si>
   <si>
     <t>类别</t>
@@ -229,10 +229,7 @@
     <t>R31, R32, R40, R73,  R85, R94, R95, R100, R107, R108, R109, R116, R117, R118, R132, R133, R139, R146</t>
   </si>
   <si>
-    <t>R74</t>
-  </si>
-  <si>
-    <t>R84, R93</t>
+    <t>R74, R84, R93</t>
   </si>
   <si>
     <t>0.825Ω/1%</t>
@@ -1015,10 +1012,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1045,8 +1042,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1059,9 +1057,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1075,7 +1072,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1084,6 +1088,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1105,41 +1125,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1158,8 +1155,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,15 +1179,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1198,25 +1195,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,13 +1219,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,7 +1273,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,13 +1309,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,31 +1351,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,55 +1369,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,14 +1379,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1560,9 +1557,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1573,27 +1568,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1625,6 +1605,19 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -1665,17 +1658,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1749,17 +1731,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1814,17 +1796,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1854,10 +1836,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1866,137 +1848,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2066,18 +2048,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2099,20 +2069,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -2123,25 +2102,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2156,7 +2135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2165,13 +2144,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2495,8 +2474,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18930,7 +18909,7 @@
       <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="53" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="12" t="s">
@@ -18948,7 +18927,7 @@
       <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="16" t="s">
@@ -18966,7 +18945,7 @@
       <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -18984,7 +18963,7 @@
       <c r="D6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="16" t="s">
@@ -19002,7 +18981,7 @@
       <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="54" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="16" t="s">
@@ -19020,7 +18999,7 @@
       <c r="D8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="16" t="s">
@@ -19038,7 +19017,7 @@
       <c r="D9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="18" t="s">
@@ -19056,7 +19035,7 @@
       <c r="D10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="18" t="s">
@@ -19074,7 +19053,7 @@
       <c r="D11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="18" t="s">
@@ -19092,7 +19071,7 @@
       <c r="D12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="18" t="s">
@@ -19110,7 +19089,7 @@
       <c r="D13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="54" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="18" t="s">
@@ -19146,7 +19125,7 @@
       <c r="D15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="18" t="s">
@@ -19164,7 +19143,7 @@
       <c r="D16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="54" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="18" t="s">
@@ -19182,7 +19161,7 @@
       <c r="D17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="18" t="s">
@@ -19200,7 +19179,7 @@
       <c r="D18" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="54" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="18" t="s">
@@ -19218,7 +19197,7 @@
       <c r="D19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="54" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="18" t="s">
@@ -19236,7 +19215,7 @@
       <c r="D20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="18" t="s">
@@ -19260,30 +19239,30 @@
       <c r="F22" s="22"/>
     </row>
     <row r="23" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="25" t="s">
         <v>6</v>
       </c>
     </row>
@@ -19300,7 +19279,7 @@
       <c r="D25" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="54" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="18" t="s">
@@ -19318,7 +19297,7 @@
       <c r="D26" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="54" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="18" t="s">
@@ -19336,7 +19315,7 @@
       <c r="D27" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="54" t="s">
         <v>20</v>
       </c>
       <c r="F27" s="18" t="s">
@@ -19381,7 +19360,7 @@
     </row>
     <row r="30" ht="27" spans="1:6">
       <c r="A30" s="13"/>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="26" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="15">
@@ -19411,7 +19390,7 @@
     </row>
     <row r="32" ht="27" spans="1:6">
       <c r="A32" s="13"/>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="26" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="15">
@@ -19440,7 +19419,7 @@
       <c r="F33" s="18"/>
     </row>
     <row r="34" ht="67.5" spans="1:6">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="27" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -19452,373 +19431,373 @@
       <c r="D34" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="32"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C35" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="54" t="s">
         <v>20</v>
       </c>
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="32"/>
-      <c r="B36" s="15" t="s">
-        <v>69</v>
+      <c r="A36" s="28"/>
+      <c r="B36" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C36" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="15">
-        <v>1206</v>
+        <v>73</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>20</v>
       </c>
       <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="32"/>
-      <c r="B37" s="14" t="s">
-        <v>73</v>
+      <c r="A37" s="28"/>
+      <c r="B37" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="C37" s="15">
         <v>1</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="55" t="s">
-        <v>20</v>
+        <v>75</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>10</v>
       </c>
       <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="32"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="18"/>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="32"/>
+    <row r="39" ht="27" spans="1:6">
+      <c r="A39" s="28"/>
       <c r="B39" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="15">
-        <v>3</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="18"/>
     </row>
-    <row r="40" ht="27" spans="1:6">
-      <c r="A40" s="32"/>
+    <row r="40" spans="1:6">
+      <c r="A40" s="28"/>
       <c r="B40" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="15">
-        <v>5</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="32"/>
-      <c r="B41" s="15" t="s">
-        <v>81</v>
+      <c r="A41" s="28"/>
+      <c r="B41" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="C41" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="55" t="s">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="E41" s="15">
+        <v>1206</v>
       </c>
       <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="32"/>
-      <c r="B42" s="14" t="s">
-        <v>83</v>
+      <c r="A42" s="28"/>
+      <c r="B42" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="C42" s="15">
         <v>2</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="15">
-        <v>1206</v>
+        <v>85</v>
+      </c>
+      <c r="E42" s="54" t="s">
+        <v>10</v>
       </c>
       <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="32"/>
-      <c r="B43" s="15" t="s">
-        <v>85</v>
+      <c r="A43" s="28"/>
+      <c r="B43" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="C43" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="55" t="s">
-        <v>10</v>
+        <v>87</v>
+      </c>
+      <c r="E43" s="54" t="s">
+        <v>34</v>
       </c>
       <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="32"/>
-      <c r="B44" s="14" t="s">
-        <v>87</v>
+      <c r="A44" s="28"/>
+      <c r="B44" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="C44" s="15">
         <v>1</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="55" t="s">
-        <v>34</v>
+        <v>89</v>
+      </c>
+      <c r="E44" s="15">
+        <v>1206</v>
       </c>
       <c r="F44" s="18"/>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="32"/>
+    <row r="45" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A45" s="28"/>
       <c r="B45" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" s="15">
-        <v>1</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="15">
-        <v>1206</v>
-      </c>
-      <c r="F45" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="29"/>
     </row>
-    <row r="46" s="2" customFormat="1" ht="27" spans="1:6">
-      <c r="A46" s="32"/>
+    <row r="46" spans="1:6">
+      <c r="A46" s="28"/>
       <c r="B46" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" s="15">
-        <v>5</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="33"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="32"/>
-      <c r="B47" s="15" t="s">
-        <v>93</v>
+      <c r="A47" s="28"/>
+      <c r="B47" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="C47" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="55" t="s">
-        <v>10</v>
+        <v>95</v>
+      </c>
+      <c r="E47" s="54" t="s">
+        <v>34</v>
       </c>
       <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="32"/>
-      <c r="B48" s="14" t="s">
-        <v>95</v>
+      <c r="A48" s="28"/>
+      <c r="B48" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="C48" s="15">
         <v>1</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="55" t="s">
-        <v>34</v>
+        <v>97</v>
+      </c>
+      <c r="E48" s="54" t="s">
+        <v>10</v>
       </c>
       <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="32"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C49" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="32"/>
-      <c r="B50" s="15" t="s">
-        <v>99</v>
+      <c r="A50" s="28"/>
+      <c r="B50" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="C50" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="32"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C51" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="18"/>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="32"/>
+    <row r="52" ht="27" spans="1:6">
+      <c r="A52" s="28"/>
       <c r="B52" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C52" s="15">
-        <v>4</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F52" s="18"/>
     </row>
-    <row r="53" ht="27" spans="1:6">
-      <c r="A53" s="32"/>
+    <row r="53" spans="1:6">
+      <c r="A53" s="28"/>
       <c r="B53" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C53" s="15">
-        <v>7</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="32"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="15">
         <v>2</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E54" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="32"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C55" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="18"/>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="32"/>
+    <row r="56" ht="27" spans="1:6">
+      <c r="A56" s="28"/>
       <c r="B56" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C56" s="15">
-        <v>1</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E56" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="18"/>
     </row>
-    <row r="57" ht="27" spans="1:6">
-      <c r="A57" s="32"/>
-      <c r="B57" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="15">
-        <v>6</v>
-      </c>
-      <c r="D57" s="17" t="s">
+    <row r="57" customFormat="1" spans="1:6">
+      <c r="A57" s="28"/>
+      <c r="B57" s="30" t="s">
         <v>114</v>
+      </c>
+      <c r="C57" s="31">
+        <v>1</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="E57" s="55" t="s">
         <v>10</v>
@@ -19826,149 +19805,141 @@
       <c r="F57" s="18"/>
     </row>
     <row r="58" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A58" s="34"/>
-      <c r="B58" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="36">
-        <v>1</v>
-      </c>
-      <c r="D58" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="E58" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="18"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="37"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:6">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="29" t="s">
+      <c r="F59" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:6">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="39" t="s">
-        <v>117</v>
+      <c r="B60" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="C60" s="15">
         <v>1</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E60" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="56" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="18"/>
     </row>
-    <row r="61" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A61" s="41"/>
-      <c r="B61" s="42" t="s">
+    <row r="61" customFormat="1" spans="1:6">
+      <c r="A61" s="40"/>
+      <c r="B61" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="21">
+        <v>1</v>
+      </c>
+      <c r="D61" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="25">
-        <v>1</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="58" t="s">
+      <c r="E61" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="26"/>
+      <c r="F61" s="22"/>
     </row>
     <row r="62" ht="40.5" spans="1:6">
-      <c r="A62" s="41"/>
+      <c r="A62" s="40"/>
       <c r="B62" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C62" s="15">
         <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E62" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F62" s="18"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="41"/>
+      <c r="A63" s="40"/>
       <c r="B63" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C63" s="15">
         <v>1</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E63" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F63" s="18"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="41"/>
+      <c r="A64" s="40"/>
       <c r="B64" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C64" s="15">
         <v>1</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E64" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F64" s="18"/>
     </row>
     <row r="65" ht="81" spans="1:6">
-      <c r="A65" s="41"/>
+      <c r="A65" s="40"/>
       <c r="B65" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="15">
         <v>22</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="18"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="41"/>
+      <c r="A66" s="40"/>
       <c r="B66" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C66" s="15">
         <v>2</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E66" s="15">
         <v>1812</v>
@@ -19976,47 +19947,47 @@
       <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="41"/>
+      <c r="A67" s="40"/>
       <c r="B67" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C67" s="15">
         <v>1</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E67" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="41"/>
+      <c r="A68" s="40"/>
       <c r="B68" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" s="15">
         <v>2</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E68" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="E68" s="54" t="s">
         <v>20</v>
       </c>
       <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="41"/>
+      <c r="A69" s="40"/>
       <c r="B69" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C69" s="15">
         <v>2</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E69" s="15">
         <v>1812</v>
@@ -20024,371 +19995,371 @@
       <c r="F69" s="18"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="41"/>
+      <c r="A70" s="40"/>
       <c r="B70" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" s="15">
         <v>1</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E70" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="18"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="41"/>
+      <c r="A71" s="40"/>
       <c r="B71" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C71" s="15">
         <v>3</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E71" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="41"/>
+      <c r="A72" s="40"/>
       <c r="B72" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C72" s="15">
         <v>1</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E72" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="E72" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F72" s="18"/>
     </row>
     <row r="73" ht="40.5" spans="1:6">
-      <c r="A73" s="41"/>
+      <c r="A73" s="40"/>
       <c r="B73" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C73" s="15">
         <v>11</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E73" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="E73" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="41"/>
+      <c r="A74" s="40"/>
       <c r="B74" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C74" s="15">
         <v>1</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E74" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F74" s="18"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="41"/>
+      <c r="A75" s="40"/>
       <c r="B75" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C75" s="15">
         <v>2</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E75" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="E75" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F75" s="18"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="41"/>
+      <c r="A76" s="40"/>
       <c r="B76" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C76" s="15">
         <v>1</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E76" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F76" s="18"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="41"/>
+      <c r="A77" s="40"/>
       <c r="B77" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C77" s="15">
         <v>1</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E77" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="E77" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F77" s="18"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="44"/>
+      <c r="A78" s="43"/>
       <c r="B78" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C78" s="15">
         <v>2</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E78" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="E78" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F78" s="18"/>
     </row>
     <row r="79" ht="27" spans="1:6">
       <c r="A79" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="C79" s="15">
         <v>6</v>
       </c>
       <c r="D79" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>156</v>
       </c>
       <c r="F79" s="18"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="13"/>
       <c r="B80" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C80" s="15">
         <v>1</v>
       </c>
       <c r="D80" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E80" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>159</v>
       </c>
       <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="13"/>
       <c r="B81" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C81" s="15">
         <v>1</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F81" s="18"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="13"/>
       <c r="B82" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C82" s="15">
         <v>1</v>
       </c>
       <c r="D82" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E82" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>164</v>
       </c>
       <c r="F82" s="18"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="13"/>
       <c r="B83" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C83" s="15">
         <v>4</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F83" s="18"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="13"/>
       <c r="B84" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C84" s="15">
         <v>1</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F84" s="18"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="13"/>
       <c r="B85" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C85" s="15">
         <v>1</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F85" s="18"/>
     </row>
     <row r="86" ht="27" spans="1:6">
       <c r="A86" s="13"/>
       <c r="B86" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C86" s="15">
         <v>8</v>
       </c>
       <c r="D86" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E86" s="15" t="s">
         <v>172</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>173</v>
       </c>
       <c r="F86" s="18"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="13"/>
       <c r="B87" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C87" s="15">
         <v>2</v>
       </c>
       <c r="D87" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E87" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>176</v>
       </c>
       <c r="F87" s="18"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="13"/>
       <c r="B88" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C88" s="15">
         <v>1</v>
       </c>
       <c r="D88" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E88" s="15" t="s">
         <v>178</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>179</v>
       </c>
       <c r="F88" s="18"/>
     </row>
     <row r="89" ht="54" spans="1:6">
       <c r="A89" s="13"/>
       <c r="B89" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C89" s="15">
         <v>14</v>
       </c>
       <c r="D89" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E89" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>182</v>
       </c>
       <c r="F89" s="18"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="13"/>
       <c r="B90" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C90" s="15">
         <v>5</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F90" s="18"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="13"/>
       <c r="B91" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C91" s="15">
         <v>2</v>
       </c>
       <c r="D91" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E91" s="15" t="s">
         <v>186</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>187</v>
       </c>
       <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="13"/>
       <c r="B92" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C92" s="15">
         <v>1</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="E92" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E92" s="54" t="s">
         <v>34</v>
       </c>
       <c r="F92" s="18"/>
@@ -20396,656 +20367,656 @@
     <row r="93" spans="1:6">
       <c r="A93" s="13"/>
       <c r="B93" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C93" s="15">
         <v>1</v>
       </c>
       <c r="D93" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E93" s="15" t="s">
         <v>191</v>
-      </c>
-      <c r="E93" s="15" t="s">
-        <v>192</v>
       </c>
       <c r="F93" s="18"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="13"/>
       <c r="B94" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C94" s="15">
         <v>1</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F94" s="18"/>
     </row>
     <row r="95" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A95" s="45"/>
-      <c r="B95" s="46"/>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="48"/>
+      <c r="A95" s="44"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="47"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="1:6">
-      <c r="A96" s="27" t="s">
+      <c r="A96" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="28" t="s">
+      <c r="B96" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="28" t="s">
+      <c r="C96" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D96" s="28" t="s">
+      <c r="D96" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E96" s="28" t="s">
+      <c r="E96" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F96" s="29" t="s">
+      <c r="F96" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>196</v>
       </c>
       <c r="C97" s="15">
         <v>1</v>
       </c>
       <c r="D97" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E97" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>198</v>
       </c>
       <c r="F97" s="18"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="13"/>
       <c r="B98" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C98" s="15">
         <v>1</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F98" s="18"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="13"/>
       <c r="B99" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C99" s="15">
         <v>5</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F99" s="18"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="13"/>
       <c r="B100" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C100" s="15">
         <v>4</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F100" s="18"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="13"/>
       <c r="B101" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C101" s="15">
         <v>1</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F101" s="18"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="13"/>
       <c r="B102" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C102" s="15">
         <v>1</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F102" s="18"/>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="13"/>
       <c r="B103" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C103" s="15">
         <v>1</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F103" s="18"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B104" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="C104" s="15">
         <v>1</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E104" s="15"/>
       <c r="F104" s="18"/>
     </row>
     <row r="105" ht="27" spans="1:6">
       <c r="A105" s="13"/>
-      <c r="B105" s="30" t="s">
-        <v>214</v>
+      <c r="B105" s="26" t="s">
+        <v>213</v>
       </c>
       <c r="C105" s="15">
         <v>4</v>
       </c>
       <c r="D105" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E105" s="15"/>
+      <c r="F105" s="48" t="s">
         <v>215</v>
-      </c>
-      <c r="E105" s="15"/>
-      <c r="F105" s="49" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="106" ht="67.5" spans="1:6">
       <c r="A106" s="13"/>
       <c r="B106" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C106" s="15">
         <v>22</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E106" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="E106" s="54" t="s">
         <v>34</v>
       </c>
       <c r="F106" s="18"/>
     </row>
     <row r="107" ht="27" spans="1:6">
       <c r="A107" s="13"/>
-      <c r="B107" s="30" t="s">
-        <v>219</v>
+      <c r="B107" s="26" t="s">
+        <v>218</v>
       </c>
       <c r="C107" s="15">
         <v>2</v>
       </c>
       <c r="D107" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E107" s="15"/>
+      <c r="F107" s="48" t="s">
         <v>220</v>
-      </c>
-      <c r="E107" s="15"/>
-      <c r="F107" s="49" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="108" ht="27" spans="1:6">
       <c r="A108" s="13"/>
-      <c r="B108" s="30" t="s">
-        <v>222</v>
+      <c r="B108" s="26" t="s">
+        <v>221</v>
       </c>
       <c r="C108" s="15">
         <v>1</v>
       </c>
       <c r="D108" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E108" s="15"/>
+      <c r="F108" s="48" t="s">
         <v>223</v>
-      </c>
-      <c r="E108" s="15"/>
-      <c r="F108" s="49" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="109" ht="27" spans="1:6">
       <c r="A109" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B109" s="26" t="s">
         <v>225</v>
-      </c>
-      <c r="B109" s="30" t="s">
-        <v>226</v>
       </c>
       <c r="C109" s="15">
         <v>1</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E109" s="15"/>
       <c r="F109" s="18"/>
     </row>
     <row r="110" ht="27" spans="1:6">
       <c r="A110" s="13"/>
-      <c r="B110" s="30" t="s">
-        <v>228</v>
+      <c r="B110" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="C110" s="15">
         <v>2</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E110" s="15"/>
       <c r="F110" s="18"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B111" s="14" t="s">
         <v>230</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>231</v>
       </c>
       <c r="C111" s="15">
         <v>1</v>
       </c>
       <c r="D111" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E111" s="15" t="s">
         <v>232</v>
-      </c>
-      <c r="E111" s="15" t="s">
-        <v>233</v>
       </c>
       <c r="F111" s="18"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="13"/>
       <c r="B112" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C112" s="15">
         <v>1</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F112" s="18"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="13"/>
       <c r="B113" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C113" s="15">
         <v>1</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F113" s="18"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="13"/>
       <c r="B114" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C114" s="15">
         <v>1</v>
       </c>
       <c r="D114" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E114" s="15" t="s">
         <v>239</v>
-      </c>
-      <c r="E114" s="15" t="s">
-        <v>240</v>
       </c>
       <c r="F114" s="18"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="13"/>
       <c r="B115" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C115" s="15">
         <v>4</v>
       </c>
       <c r="D115" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E115" s="15" t="s">
         <v>242</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="F115" s="18"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="13"/>
       <c r="B116" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C116" s="15">
         <v>4</v>
       </c>
       <c r="D116" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E116" s="15" t="s">
         <v>245</v>
-      </c>
-      <c r="E116" s="15" t="s">
-        <v>246</v>
       </c>
       <c r="F116" s="18"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="13"/>
       <c r="B117" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C117" s="15">
         <v>1</v>
       </c>
       <c r="D117" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="E117" s="15" t="s">
         <v>248</v>
-      </c>
-      <c r="E117" s="15" t="s">
-        <v>249</v>
       </c>
       <c r="F117" s="18"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="13"/>
       <c r="B118" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C118" s="15">
         <v>1</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F118" s="18"/>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="13"/>
       <c r="B119" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C119" s="15">
         <v>1</v>
       </c>
       <c r="D119" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E119" s="15" t="s">
         <v>253</v>
-      </c>
-      <c r="E119" s="15" t="s">
-        <v>254</v>
       </c>
       <c r="F119" s="18"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="13"/>
       <c r="B120" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C120" s="15">
         <v>1</v>
       </c>
       <c r="D120" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E120" s="15" t="s">
         <v>256</v>
-      </c>
-      <c r="E120" s="15" t="s">
-        <v>257</v>
       </c>
       <c r="F120" s="18"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="13"/>
       <c r="B121" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C121" s="15">
         <v>1</v>
       </c>
       <c r="D121" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="E121" s="15" t="s">
         <v>259</v>
-      </c>
-      <c r="E121" s="15" t="s">
-        <v>260</v>
       </c>
       <c r="F121" s="18"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="13"/>
       <c r="B122" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C122" s="15">
         <v>1</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F122" s="18"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="13"/>
       <c r="B123" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C123" s="15">
         <v>3</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F123" s="18"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="13"/>
       <c r="B124" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C124" s="15">
         <v>1</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F124" s="18"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="13"/>
       <c r="B125" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C125" s="15">
         <v>2</v>
       </c>
       <c r="D125" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E125" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="E125" s="15" t="s">
-        <v>269</v>
       </c>
       <c r="F125" s="18"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="13"/>
       <c r="B126" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C126" s="15">
         <v>1</v>
       </c>
       <c r="D126" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E126" s="15" t="s">
         <v>271</v>
-      </c>
-      <c r="E126" s="15" t="s">
-        <v>272</v>
       </c>
       <c r="F126" s="18"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="13"/>
       <c r="B127" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C127" s="15">
         <v>2</v>
       </c>
       <c r="D127" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="E127" s="15" t="s">
         <v>274</v>
-      </c>
-      <c r="E127" s="15" t="s">
-        <v>275</v>
       </c>
       <c r="F127" s="18"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="13"/>
       <c r="B128" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C128" s="15">
         <v>1</v>
       </c>
       <c r="D128" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E128" s="15" t="s">
         <v>277</v>
-      </c>
-      <c r="E128" s="15" t="s">
-        <v>278</v>
       </c>
       <c r="F128" s="18"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="13"/>
       <c r="B129" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C129" s="15">
         <v>1</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E129" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F129" s="18"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="13"/>
       <c r="B130" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C130" s="15">
         <v>2</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F130" s="18"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="13"/>
       <c r="B131" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C131" s="15">
         <v>1</v>
       </c>
       <c r="D131" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E131" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="E131" s="15" t="s">
-        <v>285</v>
       </c>
       <c r="F131" s="18"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="13"/>
       <c r="B132" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C132" s="15">
         <v>1</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F132" s="18"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B133" s="14" t="s">
         <v>288</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>289</v>
       </c>
       <c r="C133" s="15">
         <v>1</v>
       </c>
       <c r="D133" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="E133" s="15" t="s">
         <v>290</v>
-      </c>
-      <c r="E133" s="15" t="s">
-        <v>291</v>
       </c>
       <c r="F133" s="18"/>
     </row>
@@ -21066,53 +21037,53 @@
       <c r="F135" s="18"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="23"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="25"/>
-      <c r="D136" s="25"/>
-      <c r="E136" s="25"/>
-      <c r="F136" s="26"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="22"/>
     </row>
     <row r="137" ht="14.25" spans="1:6">
-      <c r="A137" s="50"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="25"/>
-      <c r="D137" s="25"/>
-      <c r="E137" s="25"/>
-      <c r="F137" s="26"/>
+      <c r="A137" s="49"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="22"/>
     </row>
     <row r="138" s="1" customFormat="1" spans="1:6">
-      <c r="A138" s="27" t="s">
+      <c r="A138" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B138" s="28" t="s">
+      <c r="B138" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C138" s="28" t="s">
+      <c r="C138" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D138" s="28" t="s">
+      <c r="D138" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E138" s="28" t="s">
+      <c r="E138" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F138" s="29" t="s">
+      <c r="F138" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B139" s="14" t="s">
         <v>292</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>293</v>
       </c>
       <c r="C139" s="15">
         <v>1</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E139" s="15"/>
       <c r="F139" s="18"/>
@@ -21120,13 +21091,13 @@
     <row r="140" spans="1:6">
       <c r="A140" s="13"/>
       <c r="B140" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C140" s="15">
         <v>1</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E140" s="15"/>
       <c r="F140" s="18"/>
@@ -21134,69 +21105,69 @@
     <row r="141" spans="1:6">
       <c r="A141" s="13"/>
       <c r="B141" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C141" s="15">
         <v>1</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E141" s="15"/>
       <c r="F141" s="18"/>
     </row>
     <row r="142" ht="27" spans="1:6">
       <c r="A142" s="13"/>
-      <c r="B142" s="30" t="s">
-        <v>299</v>
+      <c r="B142" s="26" t="s">
+        <v>298</v>
       </c>
       <c r="C142" s="15">
         <v>1</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E142" s="15"/>
       <c r="F142" s="18"/>
     </row>
     <row r="143" ht="27" spans="1:6">
       <c r="A143" s="13"/>
-      <c r="B143" s="30" t="s">
-        <v>301</v>
+      <c r="B143" s="26" t="s">
+        <v>300</v>
       </c>
       <c r="C143" s="15">
         <v>1</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E143" s="15"/>
       <c r="F143" s="18"/>
     </row>
     <row r="144" ht="27" spans="1:6">
       <c r="A144" s="13"/>
-      <c r="B144" s="30" t="s">
-        <v>303</v>
+      <c r="B144" s="26" t="s">
+        <v>302</v>
       </c>
       <c r="C144" s="15">
         <v>1</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E144" s="15"/>
       <c r="F144" s="18"/>
     </row>
     <row r="145" ht="27" spans="1:6">
       <c r="A145" s="13"/>
-      <c r="B145" s="30" t="s">
-        <v>305</v>
+      <c r="B145" s="26" t="s">
+        <v>304</v>
       </c>
       <c r="C145" s="15">
         <v>1</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E145" s="15"/>
       <c r="F145" s="18"/>
@@ -21204,13 +21175,13 @@
     <row r="146" spans="1:6">
       <c r="A146" s="13"/>
       <c r="B146" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C146" s="15">
         <v>1</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E146" s="15"/>
       <c r="F146" s="18"/>
@@ -21218,27 +21189,27 @@
     <row r="147" spans="1:6">
       <c r="A147" s="13"/>
       <c r="B147" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C147" s="15">
         <v>1</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E147" s="15"/>
       <c r="F147" s="18"/>
     </row>
     <row r="148" ht="27" spans="1:6">
       <c r="A148" s="13"/>
-      <c r="B148" s="30" t="s">
-        <v>311</v>
+      <c r="B148" s="26" t="s">
+        <v>310</v>
       </c>
       <c r="C148" s="15">
         <v>1</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E148" s="15"/>
       <c r="F148" s="18"/>
@@ -21246,13 +21217,13 @@
     <row r="149" spans="1:6">
       <c r="A149" s="13"/>
       <c r="B149" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C149" s="15">
         <v>1</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E149" s="15"/>
       <c r="F149" s="18"/>
@@ -21260,13 +21231,13 @@
     <row r="150" spans="1:6">
       <c r="A150" s="13"/>
       <c r="B150" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C150" s="15">
         <v>1</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E150" s="15"/>
       <c r="F150" s="18"/>
@@ -21274,57 +21245,57 @@
     <row r="151" spans="1:6">
       <c r="A151" s="13"/>
       <c r="B151" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C151" s="15">
         <v>4</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E151" s="15"/>
       <c r="F151" s="18"/>
     </row>
     <row r="152" ht="27" spans="1:6">
       <c r="A152" s="13"/>
-      <c r="B152" s="30" t="s">
-        <v>319</v>
+      <c r="B152" s="26" t="s">
+        <v>318</v>
       </c>
       <c r="C152" s="15">
         <v>1</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E152" s="15"/>
       <c r="F152" s="18"/>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B153" s="14" t="s">
         <v>321</v>
-      </c>
-      <c r="B153" s="14" t="s">
-        <v>322</v>
       </c>
       <c r="C153" s="15">
         <v>5</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E153" s="15"/>
       <c r="F153" s="18"/>
     </row>
     <row r="154" ht="27" spans="1:6">
       <c r="A154" s="13"/>
-      <c r="B154" s="30" t="s">
-        <v>324</v>
+      <c r="B154" s="26" t="s">
+        <v>323</v>
       </c>
       <c r="C154" s="15">
         <v>1</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E154" s="15">
         <v>2920</v>
@@ -21333,24 +21304,24 @@
     </row>
     <row r="155" ht="27" spans="1:6">
       <c r="A155" s="13"/>
-      <c r="B155" s="30" t="s">
-        <v>326</v>
+      <c r="B155" s="26" t="s">
+        <v>325</v>
       </c>
       <c r="C155" s="15">
         <v>1</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E155" s="15"/>
       <c r="F155" s="18"/>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="13"/>
-      <c r="B156" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C156" s="51">
+      <c r="B156" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="C156" s="50">
         <v>4</v>
       </c>
       <c r="D156" s="15"/>
@@ -21359,10 +21330,10 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="13"/>
-      <c r="B157" s="51" t="s">
-        <v>329</v>
-      </c>
-      <c r="C157" s="51">
+      <c r="B157" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="C157" s="50">
         <v>2</v>
       </c>
       <c r="D157" s="15"/>
@@ -21370,7 +21341,7 @@
       <c r="F157" s="18"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="52"/>
+      <c r="A158" s="51"/>
       <c r="B158" s="14"/>
       <c r="C158" s="15"/>
       <c r="D158" s="15"/>
@@ -21378,7 +21349,7 @@
       <c r="F158" s="18"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="52"/>
+      <c r="A159" s="51"/>
       <c r="B159" s="14"/>
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
@@ -21386,7 +21357,7 @@
       <c r="F159" s="18"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="52"/>
+      <c r="A160" s="51"/>
       <c r="B160" s="14"/>
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
@@ -21394,7 +21365,7 @@
       <c r="F160" s="18"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="52"/>
+      <c r="A161" s="51"/>
       <c r="B161" s="14"/>
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
@@ -21402,7 +21373,7 @@
       <c r="F161" s="18"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="52"/>
+      <c r="A162" s="51"/>
       <c r="B162" s="14"/>
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
@@ -21410,7 +21381,7 @@
       <c r="F162" s="18"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="52"/>
+      <c r="A163" s="51"/>
       <c r="B163" s="14"/>
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
@@ -21418,7 +21389,7 @@
       <c r="F163" s="18"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="52"/>
+      <c r="A164" s="51"/>
       <c r="B164" s="14"/>
       <c r="C164" s="15"/>
       <c r="D164" s="15"/>
@@ -21426,7 +21397,7 @@
       <c r="F164" s="18"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="52"/>
+      <c r="A165" s="51"/>
       <c r="B165" s="14"/>
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
@@ -21434,7 +21405,7 @@
       <c r="F165" s="18"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="52"/>
+      <c r="A166" s="51"/>
       <c r="B166" s="14"/>
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
@@ -21442,7 +21413,7 @@
       <c r="F166" s="18"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="52"/>
+      <c r="A167" s="51"/>
       <c r="B167" s="14"/>
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
@@ -21450,7 +21421,7 @@
       <c r="F167" s="18"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="52"/>
+      <c r="A168" s="51"/>
       <c r="B168" s="14"/>
       <c r="C168" s="15"/>
       <c r="D168" s="15"/>
@@ -21458,7 +21429,7 @@
       <c r="F168" s="18"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="52"/>
+      <c r="A169" s="51"/>
       <c r="B169" s="14"/>
       <c r="C169" s="15"/>
       <c r="D169" s="15"/>
@@ -21466,7 +21437,7 @@
       <c r="F169" s="18"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="52"/>
+      <c r="A170" s="51"/>
       <c r="B170" s="14"/>
       <c r="C170" s="15"/>
       <c r="D170" s="15"/>
@@ -21474,7 +21445,7 @@
       <c r="F170" s="18"/>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="52"/>
+      <c r="A171" s="51"/>
       <c r="B171" s="14"/>
       <c r="C171" s="15"/>
       <c r="D171" s="15"/>
@@ -21482,7 +21453,7 @@
       <c r="F171" s="18"/>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="52"/>
+      <c r="A172" s="51"/>
       <c r="B172" s="14"/>
       <c r="C172" s="15"/>
       <c r="D172" s="15"/>
@@ -21490,7 +21461,7 @@
       <c r="F172" s="18"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="52"/>
+      <c r="A173" s="51"/>
       <c r="B173" s="14"/>
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
@@ -21498,7 +21469,7 @@
       <c r="F173" s="18"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="52"/>
+      <c r="A174" s="51"/>
       <c r="B174" s="14"/>
       <c r="C174" s="15"/>
       <c r="D174" s="15"/>
@@ -21506,7 +21477,7 @@
       <c r="F174" s="18"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="52"/>
+      <c r="A175" s="51"/>
       <c r="B175" s="14"/>
       <c r="C175" s="15"/>
       <c r="D175" s="15"/>
@@ -21514,7 +21485,7 @@
       <c r="F175" s="18"/>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="52"/>
+      <c r="A176" s="51"/>
       <c r="B176" s="14"/>
       <c r="C176" s="15"/>
       <c r="D176" s="15"/>
@@ -21522,7 +21493,7 @@
       <c r="F176" s="18"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="52"/>
+      <c r="A177" s="51"/>
       <c r="B177" s="14"/>
       <c r="C177" s="15"/>
       <c r="D177" s="15"/>
@@ -21530,7 +21501,7 @@
       <c r="F177" s="18"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="52"/>
+      <c r="A178" s="51"/>
       <c r="B178" s="14"/>
       <c r="C178" s="15"/>
       <c r="D178" s="15"/>
@@ -21538,7 +21509,7 @@
       <c r="F178" s="18"/>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="52"/>
+      <c r="A179" s="51"/>
       <c r="B179" s="14"/>
       <c r="C179" s="15"/>
       <c r="D179" s="15"/>
@@ -21546,12 +21517,12 @@
       <c r="F179" s="18"/>
     </row>
     <row r="180" ht="14.25" spans="1:6">
-      <c r="A180" s="53"/>
-      <c r="B180" s="46"/>
-      <c r="C180" s="47"/>
-      <c r="D180" s="47"/>
-      <c r="E180" s="47"/>
-      <c r="F180" s="48"/>
+      <c r="A180" s="52"/>
+      <c r="B180" s="45"/>
+      <c r="C180" s="46"/>
+      <c r="D180" s="46"/>
+      <c r="E180" s="46"/>
+      <c r="F180" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="11">
